--- a/BackTest/2020-01-13 BackTest FNB.xlsx
+++ b/BackTest/2020-01-13 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>OBV</t>
+          <t>CMO</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -451,7 +451,7 @@
         <v>457442.8380773334</v>
       </c>
       <c r="H2" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H3" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H5" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H6" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>485069.9518773334</v>
       </c>
       <c r="H7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>485246.9518773334</v>
       </c>
       <c r="H8" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>484046.9518773334</v>
       </c>
       <c r="H9" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>483602.9518773334</v>
       </c>
       <c r="H10" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -748,7 +748,7 @@
         <v>483772.9518773334</v>
       </c>
       <c r="H11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>483772.9518773334</v>
       </c>
       <c r="H12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4139219.196822667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5575620.281722667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5575443.281722667</v>
       </c>
       <c r="H15" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5575443.281722667</v>
       </c>
       <c r="H16" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5574493.281722667</v>
       </c>
       <c r="H17" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5575996.281722667</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5345097.809722667</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2870784.049222667</v>
       </c>
       <c r="H54" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3126447.600522667</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H63" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H64" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H65" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H66" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H67" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3636663.725122667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3775924.725122667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3691484.725122667</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H73" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H74" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3203398.845322667</v>
       </c>
       <c r="H97" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3203798.845322667</v>
       </c>
       <c r="H98" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H99" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H102" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3218782.011122667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4019521.375022667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3831121.997322666</v>
       </c>
       <c r="H109" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3830455.997322666</v>
       </c>
       <c r="H110" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3834866.997322666</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3736648.279522666</v>
       </c>
       <c r="H118" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3737759.279522666</v>
       </c>
       <c r="H119" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3475214.238522666</v>
       </c>
       <c r="H120" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4213740.592122667</v>
       </c>
       <c r="H121" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4213518.592122667</v>
       </c>
       <c r="H122" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4350662.033522666</v>
       </c>
       <c r="H123" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4350662.033522666</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4351862.033522666</v>
       </c>
       <c r="H125" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4352306.033522666</v>
       </c>
       <c r="H126" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4362811.033522666</v>
       </c>
       <c r="H127" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4362589.033522666</v>
       </c>
       <c r="H128" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4362589.033522666</v>
       </c>
       <c r="H129" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4364233.033522666</v>
       </c>
       <c r="H130" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4365433.033522666</v>
       </c>
       <c r="H131" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4384989.033522666</v>
       </c>
       <c r="H132" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4384989.033522666</v>
       </c>
       <c r="H133" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4384989.033522666</v>
       </c>
       <c r="H134" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4656413.283322667</v>
       </c>
       <c r="H135" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4858825.427422667</v>
       </c>
       <c r="H136" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4857537.427422667</v>
       </c>
       <c r="H137" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4857770.427422667</v>
       </c>
       <c r="H138" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5077759.534222667</v>
       </c>
       <c r="H139" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5037400.805922667</v>
       </c>
       <c r="H141" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5037400.805922667</v>
       </c>
       <c r="H142" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5037178.805922667</v>
       </c>
       <c r="H143" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5046066.805922667</v>
       </c>
       <c r="H144" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-5045622.805922667</v>
       </c>
       <c r="H145" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5045622.805922667</v>
       </c>
       <c r="H146" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5029086.525722668</v>
       </c>
       <c r="H147" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-5029086.525722668</v>
       </c>
       <c r="H148" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-5035750.525722668</v>
       </c>
       <c r="H149" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-5048014.452622668</v>
       </c>
       <c r="H150" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5048014.452622668</v>
       </c>
       <c r="H151" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5041486.659722668</v>
       </c>
       <c r="H152" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-5002550.329522668</v>
       </c>
       <c r="H158" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5023649.329522668</v>
       </c>
       <c r="H163" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5023649.329522668</v>
       </c>
       <c r="H164" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-5023649.329522668</v>
       </c>
       <c r="H165" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-5003549.329522668</v>
       </c>
       <c r="H166" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-5003549.329522668</v>
       </c>
       <c r="H167" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4276729.734822668</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3984272.329522668</v>
       </c>
       <c r="H171" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H172" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H173" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H174" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H175" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3982516.329522668</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3982166.329522668</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-3983454.329522668</v>
       </c>
       <c r="H178" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H179" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4050027.814122668</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4023287.096122669</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4092067.976522669</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H184" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H185" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H186" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H187" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H188" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H190" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5240320.202822668</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5239619.202822668</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5239619.202822668</v>
       </c>
       <c r="H194" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5235973.861722669</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5236639.861722669</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5239739.861722669</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5395446.323122669</v>
       </c>
       <c r="H200" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-8592701.052522669</v>
       </c>
       <c r="H211" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-8592701.052522669</v>
       </c>
       <c r="H212" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-8592701.052522669</v>
       </c>
       <c r="H213" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-8567792.326722668</v>
       </c>
       <c r="H214" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-8560430.686522668</v>
       </c>
       <c r="H215" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-8554024.048222668</v>
       </c>
       <c r="H216" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-8554848.604022669</v>
       </c>
       <c r="H217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-8547779.109822668</v>
       </c>
       <c r="H218" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H222" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H223" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H224" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H225" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-8550942.468422668</v>
       </c>
       <c r="H226" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-8590942.468422668</v>
       </c>
       <c r="H227" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-8589831.468422668</v>
       </c>
       <c r="H228" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -7942,7 +7942,7 @@
         <v>-8596497.468422668</v>
       </c>
       <c r="H229" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I229" t="inlineStr"/>
       <c r="J229" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-8489793.457530877</v>
       </c>
       <c r="H237" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-8490046.483830877</v>
       </c>
       <c r="H238" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-8490046.483830877</v>
       </c>
       <c r="H239" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-8492092.700530877</v>
       </c>
       <c r="H240" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-8493592.700530877</v>
       </c>
       <c r="H241" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-8493192.700530877</v>
       </c>
       <c r="H242" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-8701357.164730877</v>
       </c>
       <c r="H243" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-8700857.164730877</v>
       </c>
       <c r="H244" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-8700857.164730877</v>
       </c>
       <c r="H245" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-8964451.439630877</v>
       </c>
       <c r="H246" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-10194495.68133088</v>
       </c>
       <c r="H247" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-10194495.68133088</v>
       </c>
       <c r="H248" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-10194318.68133088</v>
       </c>
       <c r="H249" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-10194318.68133088</v>
       </c>
       <c r="H250" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-10194495.68133088</v>
       </c>
       <c r="H253" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-10198939.68133088</v>
       </c>
       <c r="H255" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-10328758.59943088</v>
       </c>
       <c r="H256" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-10410661.82913087</v>
       </c>
       <c r="H257" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-10410661.82913087</v>
       </c>
       <c r="H258" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-10398346.16253087</v>
       </c>
       <c r="H259" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-10350098.00143087</v>
       </c>
       <c r="H260" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-10350098.00143087</v>
       </c>
       <c r="H261" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-10573367.71843087</v>
       </c>
       <c r="H262" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-10405550.55383088</v>
       </c>
       <c r="H264" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-10509974.54683088</v>
       </c>
       <c r="H265" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-10610205.34773088</v>
       </c>
       <c r="H266" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-10595740.84463087</v>
       </c>
       <c r="H267" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-10565102.69743088</v>
       </c>
       <c r="H268" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -9262,7 +9262,7 @@
         <v>-10683424.19793087</v>
       </c>
       <c r="H269" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I269" t="inlineStr"/>
       <c r="J269" t="inlineStr"/>
@@ -9328,7 +9328,7 @@
         <v>-10334192.28563087</v>
       </c>
       <c r="H271" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I271" t="inlineStr"/>
       <c r="J271" t="inlineStr"/>
@@ -9361,7 +9361,7 @@
         <v>-11827427.94033087</v>
       </c>
       <c r="H272" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I272" t="inlineStr"/>
       <c r="J272" t="inlineStr"/>
@@ -9592,7 +9592,7 @@
         <v>-12817641.75913087</v>
       </c>
       <c r="H279" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I279" t="inlineStr"/>
       <c r="J279" t="inlineStr"/>
@@ -9790,7 +9790,7 @@
         <v>-13745787.76253087</v>
       </c>
       <c r="H285" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I285" t="inlineStr"/>
       <c r="J285" t="inlineStr"/>
@@ -9856,7 +9856,7 @@
         <v>-12903685.51013087</v>
       </c>
       <c r="H287" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I287" t="inlineStr"/>
       <c r="J287" t="inlineStr"/>
@@ -9889,7 +9889,7 @@
         <v>-12903685.51013087</v>
       </c>
       <c r="H288" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I288" t="inlineStr"/>
       <c r="J288" t="inlineStr"/>
@@ -9922,7 +9922,7 @@
         <v>-12902296.35803087</v>
       </c>
       <c r="H289" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I289" t="inlineStr"/>
       <c r="J289" t="inlineStr"/>
@@ -9955,7 +9955,7 @@
         <v>-13131567.19673087</v>
       </c>
       <c r="H290" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I290" t="inlineStr"/>
       <c r="J290" t="inlineStr"/>
@@ -9988,7 +9988,7 @@
         <v>-13113032.38183087</v>
       </c>
       <c r="H291" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I291" t="inlineStr"/>
       <c r="J291" t="inlineStr"/>
@@ -10021,7 +10021,7 @@
         <v>-13113032.38183087</v>
       </c>
       <c r="H292" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I292" t="inlineStr"/>
       <c r="J292" t="inlineStr"/>
@@ -10054,7 +10054,7 @@
         <v>-13741700.53123087</v>
       </c>
       <c r="H293" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I293" t="inlineStr"/>
       <c r="J293" t="inlineStr"/>
@@ -10087,7 +10087,7 @@
         <v>-17488984.83203087</v>
       </c>
       <c r="H294" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I294" t="inlineStr"/>
       <c r="J294" t="inlineStr"/>
@@ -10120,7 +10120,7 @@
         <v>-17488984.83203087</v>
       </c>
       <c r="H295" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I295" t="inlineStr"/>
       <c r="J295" t="inlineStr"/>
@@ -10153,7 +10153,7 @@
         <v>-17488984.83203087</v>
       </c>
       <c r="H296" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I296" t="inlineStr"/>
       <c r="J296" t="inlineStr"/>
@@ -10186,7 +10186,7 @@
         <v>-17478784.83203087</v>
       </c>
       <c r="H297" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I297" t="inlineStr"/>
       <c r="J297" t="inlineStr"/>
@@ -10252,7 +10252,7 @@
         <v>-22759297.39883088</v>
       </c>
       <c r="H299" t="n">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="I299" t="inlineStr"/>
       <c r="J299" t="inlineStr"/>
@@ -12067,14 +12067,10 @@
         <v>-18544560.05543087</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
-      </c>
-      <c r="I354" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="J354" t="n">
-        <v>2.939</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I354" t="inlineStr"/>
+      <c r="J354" t="inlineStr"/>
       <c r="K354" t="inlineStr"/>
       <c r="L354" t="n">
         <v>1</v>
@@ -12104,534 +12100,468 @@
         <v>-18545004.05543087</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
-      </c>
-      <c r="I355" t="n">
-        <v>2.936</v>
-      </c>
-      <c r="J355" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K355" t="inlineStr">
+        <v>0</v>
+      </c>
+      <c r="I355" t="inlineStr"/>
+      <c r="J355" t="inlineStr"/>
+      <c r="K355" t="inlineStr"/>
+      <c r="L355" t="n">
+        <v>1</v>
+      </c>
+      <c r="M355" t="inlineStr"/>
+    </row>
+    <row r="356">
+      <c r="A356" s="1" t="n">
+        <v>354</v>
+      </c>
+      <c r="B356" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="C356" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="D356" t="n">
+        <v>2.932</v>
+      </c>
+      <c r="E356" t="n">
+        <v>2.929</v>
+      </c>
+      <c r="F356" t="n">
+        <v>1611.3286</v>
+      </c>
+      <c r="G356" t="n">
+        <v>-18546615.38403087</v>
+      </c>
+      <c r="H356" t="n">
+        <v>0</v>
+      </c>
+      <c r="I356" t="inlineStr"/>
+      <c r="J356" t="inlineStr"/>
+      <c r="K356" t="inlineStr"/>
+      <c r="L356" t="n">
+        <v>1</v>
+      </c>
+      <c r="M356" t="inlineStr"/>
+    </row>
+    <row r="357">
+      <c r="A357" s="1" t="n">
+        <v>355</v>
+      </c>
+      <c r="B357" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="C357" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="D357" t="n">
+        <v>2.927</v>
+      </c>
+      <c r="E357" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="F357" t="n">
+        <v>35833.7641</v>
+      </c>
+      <c r="G357" t="n">
+        <v>-18582449.14813087</v>
+      </c>
+      <c r="H357" t="n">
+        <v>0</v>
+      </c>
+      <c r="I357" t="inlineStr"/>
+      <c r="J357" t="inlineStr"/>
+      <c r="K357" t="inlineStr"/>
+      <c r="L357" t="n">
+        <v>1</v>
+      </c>
+      <c r="M357" t="inlineStr"/>
+    </row>
+    <row r="358">
+      <c r="A358" s="1" t="n">
+        <v>356</v>
+      </c>
+      <c r="B358" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="C358" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="D358" t="n">
+        <v>2.913</v>
+      </c>
+      <c r="E358" t="n">
+        <v>2.911</v>
+      </c>
+      <c r="F358" t="n">
+        <v>21649.382</v>
+      </c>
+      <c r="G358" t="n">
+        <v>-18604098.53013087</v>
+      </c>
+      <c r="H358" t="n">
+        <v>0</v>
+      </c>
+      <c r="I358" t="inlineStr"/>
+      <c r="J358" t="inlineStr"/>
+      <c r="K358" t="inlineStr"/>
+      <c r="L358" t="n">
+        <v>1</v>
+      </c>
+      <c r="M358" t="inlineStr"/>
+    </row>
+    <row r="359">
+      <c r="A359" s="1" t="n">
+        <v>357</v>
+      </c>
+      <c r="B359" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="C359" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="D359" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="E359" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="F359" t="n">
+        <v>172</v>
+      </c>
+      <c r="G359" t="n">
+        <v>-18603926.53013087</v>
+      </c>
+      <c r="H359" t="n">
+        <v>0</v>
+      </c>
+      <c r="I359" t="inlineStr"/>
+      <c r="J359" t="inlineStr"/>
+      <c r="K359" t="inlineStr"/>
+      <c r="L359" t="n">
+        <v>1</v>
+      </c>
+      <c r="M359" t="inlineStr"/>
+    </row>
+    <row r="360">
+      <c r="A360" s="1" t="n">
+        <v>358</v>
+      </c>
+      <c r="B360" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="C360" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="D360" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E360" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="F360" t="n">
+        <v>177</v>
+      </c>
+      <c r="G360" t="n">
+        <v>-18603749.53013087</v>
+      </c>
+      <c r="H360" t="n">
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="J360" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="K360" t="inlineStr"/>
+      <c r="L360" t="n">
+        <v>1</v>
+      </c>
+      <c r="M360" t="inlineStr"/>
+    </row>
+    <row r="361">
+      <c r="A361" s="1" t="n">
+        <v>359</v>
+      </c>
+      <c r="B361" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="C361" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="D361" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E361" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="F361" t="n">
+        <v>444</v>
+      </c>
+      <c r="G361" t="n">
+        <v>-18603749.53013087</v>
+      </c>
+      <c r="H361" t="n">
+        <v>0</v>
+      </c>
+      <c r="I361" t="inlineStr"/>
+      <c r="J361" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="K361" t="inlineStr">
         <is>
           <t>매수 대기</t>
         </is>
       </c>
-      <c r="L355" t="n">
-        <v>1</v>
-      </c>
-      <c r="M355" t="inlineStr"/>
-    </row>
-    <row r="356">
-      <c r="A356" s="1" t="n">
-        <v>354</v>
-      </c>
-      <c r="B356" t="n">
+      <c r="L361" t="n">
+        <v>1</v>
+      </c>
+      <c r="M361" t="inlineStr"/>
+    </row>
+    <row r="362">
+      <c r="A362" s="1" t="n">
+        <v>360</v>
+      </c>
+      <c r="B362" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="C362" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="D362" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E362" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="F362" t="n">
+        <v>886143.1307</v>
+      </c>
+      <c r="G362" t="n">
+        <v>-18603749.53013087</v>
+      </c>
+      <c r="H362" t="n">
+        <v>0</v>
+      </c>
+      <c r="I362" t="inlineStr"/>
+      <c r="J362" t="n">
+        <v>2.912</v>
+      </c>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매수 대기</t>
+        </is>
+      </c>
+      <c r="L362" t="n">
+        <v>1</v>
+      </c>
+      <c r="M362" t="inlineStr"/>
+    </row>
+    <row r="363">
+      <c r="A363" s="1" t="n">
+        <v>361</v>
+      </c>
+      <c r="B363" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="C363" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="D363" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="E363" t="n">
+        <v>2.937</v>
+      </c>
+      <c r="F363" t="n">
+        <v>177</v>
+      </c>
+      <c r="G363" t="n">
+        <v>-18603572.53013087</v>
+      </c>
+      <c r="H363" t="n">
+        <v>0</v>
+      </c>
+      <c r="I363" t="inlineStr"/>
+      <c r="J363" t="inlineStr"/>
+      <c r="K363" t="inlineStr"/>
+      <c r="L363" t="n">
+        <v>1</v>
+      </c>
+      <c r="M363" t="inlineStr"/>
+    </row>
+    <row r="364">
+      <c r="A364" s="1" t="n">
+        <v>362</v>
+      </c>
+      <c r="B364" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="C364" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="D364" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="E364" t="n">
+        <v>2.934</v>
+      </c>
+      <c r="F364" t="n">
+        <v>177</v>
+      </c>
+      <c r="G364" t="n">
+        <v>-18603749.53013087</v>
+      </c>
+      <c r="H364" t="n">
+        <v>0</v>
+      </c>
+      <c r="I364" t="inlineStr"/>
+      <c r="J364" t="inlineStr"/>
+      <c r="K364" t="inlineStr"/>
+      <c r="L364" t="n">
+        <v>1</v>
+      </c>
+      <c r="M364" t="inlineStr"/>
+    </row>
+    <row r="365">
+      <c r="A365" s="1" t="n">
+        <v>363</v>
+      </c>
+      <c r="B365" t="n">
         <v>2.932</v>
       </c>
-      <c r="C356" t="n">
-        <v>2.929</v>
-      </c>
-      <c r="D356" t="n">
+      <c r="C365" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="D365" t="n">
         <v>2.932</v>
       </c>
-      <c r="E356" t="n">
-        <v>2.929</v>
-      </c>
-      <c r="F356" t="n">
-        <v>1611.3286</v>
-      </c>
-      <c r="G356" t="n">
-        <v>-18546615.38403087</v>
-      </c>
-      <c r="H356" t="n">
-        <v>0</v>
-      </c>
-      <c r="I356" t="inlineStr"/>
-      <c r="J356" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K356" t="inlineStr">
+      <c r="E365" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="F365" t="n">
+        <v>21566.047</v>
+      </c>
+      <c r="G365" t="n">
+        <v>-18625315.57713087</v>
+      </c>
+      <c r="H365" t="n">
+        <v>0</v>
+      </c>
+      <c r="I365" t="inlineStr"/>
+      <c r="J365" t="inlineStr"/>
+      <c r="K365" t="inlineStr"/>
+      <c r="L365" t="n">
+        <v>1</v>
+      </c>
+      <c r="M365" t="inlineStr"/>
+    </row>
+    <row r="366">
+      <c r="A366" s="1" t="n">
+        <v>364</v>
+      </c>
+      <c r="B366" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="C366" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="D366" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E366" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="F366" t="n">
+        <v>14599.3219</v>
+      </c>
+      <c r="G366" t="n">
+        <v>-18625315.57713087</v>
+      </c>
+      <c r="H366" t="n">
+        <v>0</v>
+      </c>
+      <c r="I366" t="inlineStr"/>
+      <c r="J366" t="inlineStr"/>
+      <c r="K366" t="inlineStr"/>
+      <c r="L366" t="n">
+        <v>1</v>
+      </c>
+      <c r="M366" t="inlineStr"/>
+    </row>
+    <row r="367">
+      <c r="A367" s="1" t="n">
+        <v>365</v>
+      </c>
+      <c r="B367" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="C367" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="D367" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E367" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="F367" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G367" t="n">
+        <v>-18625315.57713087</v>
+      </c>
+      <c r="H367" t="n">
+        <v>1</v>
+      </c>
+      <c r="I367" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="J367" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="K367" t="inlineStr"/>
+      <c r="L367" t="n">
+        <v>1</v>
+      </c>
+      <c r="M367" t="inlineStr"/>
+    </row>
+    <row r="368">
+      <c r="A368" s="1" t="n">
+        <v>366</v>
+      </c>
+      <c r="B368" t="n">
+        <v>2.924</v>
+      </c>
+      <c r="C368" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="D368" t="n">
+        <v>2.924</v>
+      </c>
+      <c r="E368" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="F368" t="n">
+        <v>100000</v>
+      </c>
+      <c r="G368" t="n">
+        <v>-18725315.57713087</v>
+      </c>
+      <c r="H368" t="n">
+        <v>1</v>
+      </c>
+      <c r="I368" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="J368" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="K368" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L356" t="n">
-        <v>1</v>
-      </c>
-      <c r="M356" t="inlineStr"/>
-    </row>
-    <row r="357">
-      <c r="A357" s="1" t="n">
-        <v>355</v>
-      </c>
-      <c r="B357" t="n">
-        <v>2.927</v>
-      </c>
-      <c r="C357" t="n">
-        <v>2.913</v>
-      </c>
-      <c r="D357" t="n">
-        <v>2.927</v>
-      </c>
-      <c r="E357" t="n">
-        <v>2.913</v>
-      </c>
-      <c r="F357" t="n">
-        <v>35833.7641</v>
-      </c>
-      <c r="G357" t="n">
-        <v>-18582449.14813087</v>
-      </c>
-      <c r="H357" t="n">
-        <v>0</v>
-      </c>
-      <c r="I357" t="inlineStr"/>
-      <c r="J357" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K357" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L357" t="n">
-        <v>1</v>
-      </c>
-      <c r="M357" t="inlineStr"/>
-    </row>
-    <row r="358">
-      <c r="A358" s="1" t="n">
-        <v>356</v>
-      </c>
-      <c r="B358" t="n">
-        <v>2.913</v>
-      </c>
-      <c r="C358" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="D358" t="n">
-        <v>2.913</v>
-      </c>
-      <c r="E358" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="F358" t="n">
-        <v>21649.382</v>
-      </c>
-      <c r="G358" t="n">
-        <v>-18604098.53013087</v>
-      </c>
-      <c r="H358" t="n">
-        <v>2</v>
-      </c>
-      <c r="I358" t="n">
-        <v>2.913</v>
-      </c>
-      <c r="J358" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K358" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L358" t="n">
-        <v>1</v>
-      </c>
-      <c r="M358" t="inlineStr"/>
-    </row>
-    <row r="359">
-      <c r="A359" s="1" t="n">
-        <v>357</v>
-      </c>
-      <c r="B359" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="C359" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="D359" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="E359" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="F359" t="n">
-        <v>172</v>
-      </c>
-      <c r="G359" t="n">
-        <v>-18603926.53013087</v>
-      </c>
-      <c r="H359" t="n">
-        <v>2</v>
-      </c>
-      <c r="I359" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="J359" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K359" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L359" t="n">
-        <v>1</v>
-      </c>
-      <c r="M359" t="inlineStr"/>
-    </row>
-    <row r="360">
-      <c r="A360" s="1" t="n">
-        <v>358</v>
-      </c>
-      <c r="B360" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="C360" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="D360" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E360" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="F360" t="n">
-        <v>177</v>
-      </c>
-      <c r="G360" t="n">
-        <v>-18603749.53013087</v>
-      </c>
-      <c r="H360" t="n">
-        <v>2</v>
-      </c>
-      <c r="I360" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="J360" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K360" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L360" t="n">
-        <v>1</v>
-      </c>
-      <c r="M360" t="inlineStr"/>
-    </row>
-    <row r="361">
-      <c r="A361" s="1" t="n">
-        <v>359</v>
-      </c>
-      <c r="B361" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="C361" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="D361" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E361" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="F361" t="n">
-        <v>444</v>
-      </c>
-      <c r="G361" t="n">
-        <v>-18603749.53013087</v>
-      </c>
-      <c r="H361" t="n">
-        <v>2</v>
-      </c>
-      <c r="I361" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="J361" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L361" t="n">
-        <v>1</v>
-      </c>
-      <c r="M361" t="inlineStr"/>
-    </row>
-    <row r="362">
-      <c r="A362" s="1" t="n">
-        <v>360</v>
-      </c>
-      <c r="B362" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="C362" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="D362" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E362" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="F362" t="n">
-        <v>886143.1307</v>
-      </c>
-      <c r="G362" t="n">
-        <v>-18603749.53013087</v>
-      </c>
-      <c r="H362" t="n">
-        <v>0</v>
-      </c>
-      <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L362" t="n">
-        <v>1</v>
-      </c>
-      <c r="M362" t="inlineStr"/>
-    </row>
-    <row r="363">
-      <c r="A363" s="1" t="n">
-        <v>361</v>
-      </c>
-      <c r="B363" t="n">
-        <v>2.937</v>
-      </c>
-      <c r="C363" t="n">
-        <v>2.937</v>
-      </c>
-      <c r="D363" t="n">
-        <v>2.937</v>
-      </c>
-      <c r="E363" t="n">
-        <v>2.937</v>
-      </c>
-      <c r="F363" t="n">
-        <v>177</v>
-      </c>
-      <c r="G363" t="n">
-        <v>-18603572.53013087</v>
-      </c>
-      <c r="H363" t="n">
-        <v>0</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
-      <c r="J363" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K363" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L363" t="n">
-        <v>1</v>
-      </c>
-      <c r="M363" t="inlineStr"/>
-    </row>
-    <row r="364">
-      <c r="A364" s="1" t="n">
-        <v>362</v>
-      </c>
-      <c r="B364" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="C364" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="D364" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="E364" t="n">
-        <v>2.934</v>
-      </c>
-      <c r="F364" t="n">
-        <v>177</v>
-      </c>
-      <c r="G364" t="n">
-        <v>-18603749.53013087</v>
-      </c>
-      <c r="H364" t="n">
-        <v>0</v>
-      </c>
-      <c r="I364" t="inlineStr"/>
-      <c r="J364" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K364" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L364" t="n">
-        <v>1</v>
-      </c>
-      <c r="M364" t="inlineStr"/>
-    </row>
-    <row r="365">
-      <c r="A365" s="1" t="n">
-        <v>363</v>
-      </c>
-      <c r="B365" t="n">
-        <v>2.932</v>
-      </c>
-      <c r="C365" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="D365" t="n">
-        <v>2.932</v>
-      </c>
-      <c r="E365" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="F365" t="n">
-        <v>21566.047</v>
-      </c>
-      <c r="G365" t="n">
-        <v>-18625315.57713087</v>
-      </c>
-      <c r="H365" t="n">
-        <v>0</v>
-      </c>
-      <c r="I365" t="inlineStr"/>
-      <c r="J365" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K365" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L365" t="n">
-        <v>1</v>
-      </c>
-      <c r="M365" t="inlineStr"/>
-    </row>
-    <row r="366">
-      <c r="A366" s="1" t="n">
-        <v>364</v>
-      </c>
-      <c r="B366" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="C366" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="D366" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E366" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="F366" t="n">
-        <v>14599.3219</v>
-      </c>
-      <c r="G366" t="n">
-        <v>-18625315.57713087</v>
-      </c>
-      <c r="H366" t="n">
-        <v>0</v>
-      </c>
-      <c r="I366" t="inlineStr"/>
-      <c r="J366" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K366" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L366" t="n">
-        <v>1</v>
-      </c>
-      <c r="M366" t="inlineStr"/>
-    </row>
-    <row r="367">
-      <c r="A367" s="1" t="n">
-        <v>365</v>
-      </c>
-      <c r="B367" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="C367" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="D367" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E367" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="F367" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G367" t="n">
-        <v>-18625315.57713087</v>
-      </c>
-      <c r="H367" t="n">
-        <v>0</v>
-      </c>
-      <c r="I367" t="inlineStr"/>
-      <c r="J367" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K367" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L367" t="n">
-        <v>1</v>
-      </c>
-      <c r="M367" t="inlineStr"/>
-    </row>
-    <row r="368">
-      <c r="A368" s="1" t="n">
-        <v>366</v>
-      </c>
-      <c r="B368" t="n">
-        <v>2.924</v>
-      </c>
-      <c r="C368" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="D368" t="n">
-        <v>2.924</v>
-      </c>
-      <c r="E368" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="F368" t="n">
-        <v>100000</v>
-      </c>
-      <c r="G368" t="n">
-        <v>-18725315.57713087</v>
-      </c>
-      <c r="H368" t="n">
-        <v>0</v>
-      </c>
-      <c r="I368" t="inlineStr"/>
-      <c r="J368" t="n">
-        <v>2.939</v>
-      </c>
-      <c r="K368" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12660,13 +12590,11 @@
         <v>-18775492.57713087</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
-      </c>
-      <c r="I369" t="n">
-        <v>2.9</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
       <c r="J369" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K369" t="inlineStr">
         <is>
@@ -12701,13 +12629,11 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
-      </c>
-      <c r="I370" t="n">
-        <v>2.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
       <c r="J370" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K370" t="inlineStr">
         <is>
@@ -12742,11 +12668,13 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H371" t="n">
-        <v>0</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2.891</v>
+      </c>
       <c r="J371" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K371" t="inlineStr">
         <is>
@@ -12785,7 +12713,7 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K372" t="inlineStr">
         <is>
@@ -12820,11 +12748,13 @@
         <v>-19970608.41893087</v>
       </c>
       <c r="H373" t="n">
-        <v>0</v>
-      </c>
-      <c r="I373" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J373" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K373" t="inlineStr">
         <is>
@@ -12859,11 +12789,13 @@
         <v>-20066299.83623087</v>
       </c>
       <c r="H374" t="n">
-        <v>0</v>
-      </c>
-      <c r="I374" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I374" t="n">
+        <v>2.881</v>
+      </c>
       <c r="J374" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K374" t="inlineStr">
         <is>
@@ -12898,11 +12830,13 @@
         <v>-20313327.70383087</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2.872</v>
+      </c>
       <c r="J375" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K375" t="inlineStr">
         <is>
@@ -12937,11 +12871,13 @@
         <v>-20243985.63643087</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J376" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K376" t="inlineStr">
         <is>
@@ -12976,11 +12912,13 @@
         <v>-20113631.63643087</v>
       </c>
       <c r="H377" t="n">
-        <v>0</v>
-      </c>
-      <c r="I377" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I377" t="n">
+        <v>2.881</v>
+      </c>
       <c r="J377" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K377" t="inlineStr">
         <is>
@@ -13015,11 +12953,13 @@
         <v>-19373615.30123087</v>
       </c>
       <c r="H378" t="n">
-        <v>0</v>
-      </c>
-      <c r="I378" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I378" t="n">
+        <v>2.889</v>
+      </c>
       <c r="J378" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K378" t="inlineStr">
         <is>
@@ -13054,11 +12994,13 @@
         <v>-20099313.20503087</v>
       </c>
       <c r="H379" t="n">
-        <v>0</v>
-      </c>
-      <c r="I379" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I379" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J379" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K379" t="inlineStr">
         <is>
@@ -13093,11 +13035,13 @@
         <v>-20099313.20503087</v>
       </c>
       <c r="H380" t="n">
-        <v>0</v>
-      </c>
-      <c r="I380" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I380" t="n">
+        <v>2.862</v>
+      </c>
       <c r="J380" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K380" t="inlineStr">
         <is>
@@ -13132,11 +13076,13 @@
         <v>-19948313.20503087</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2.862</v>
+      </c>
       <c r="J381" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K381" t="inlineStr">
         <is>
@@ -13171,11 +13117,13 @@
         <v>-19648313.20503087</v>
       </c>
       <c r="H382" t="n">
-        <v>0</v>
-      </c>
-      <c r="I382" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I382" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J382" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K382" t="inlineStr">
         <is>
@@ -13210,11 +13158,13 @@
         <v>-19647815.53023086</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2.865</v>
+      </c>
       <c r="J383" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K383" t="inlineStr">
         <is>
@@ -13249,11 +13199,13 @@
         <v>-19747815.53023086</v>
       </c>
       <c r="H384" t="n">
-        <v>0</v>
-      </c>
-      <c r="I384" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I384" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J384" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K384" t="inlineStr">
         <is>
@@ -13288,11 +13240,13 @@
         <v>-18830958.31973086</v>
       </c>
       <c r="H385" t="n">
-        <v>0</v>
-      </c>
-      <c r="I385" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I385" t="n">
+        <v>2.867</v>
+      </c>
       <c r="J385" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K385" t="inlineStr">
         <is>
@@ -13327,13 +13281,13 @@
         <v>-18896929.00443086</v>
       </c>
       <c r="H386" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I386" t="n">
         <v>2.935</v>
       </c>
       <c r="J386" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K386" t="inlineStr">
         <is>
@@ -13372,7 +13326,7 @@
       </c>
       <c r="I387" t="inlineStr"/>
       <c r="J387" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K387" t="inlineStr">
         <is>
@@ -13411,7 +13365,7 @@
       </c>
       <c r="I388" t="inlineStr"/>
       <c r="J388" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K388" t="inlineStr">
         <is>
@@ -13450,7 +13404,7 @@
       </c>
       <c r="I389" t="inlineStr"/>
       <c r="J389" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K389" t="inlineStr">
         <is>
@@ -13485,11 +13439,13 @@
         <v>-20802237.05583086</v>
       </c>
       <c r="H390" t="n">
-        <v>0</v>
-      </c>
-      <c r="I390" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I390" t="n">
+        <v>2.883</v>
+      </c>
       <c r="J390" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K390" t="inlineStr">
         <is>
@@ -13524,11 +13480,13 @@
         <v>-20842237.05583086</v>
       </c>
       <c r="H391" t="n">
-        <v>0</v>
-      </c>
-      <c r="I391" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I391" t="n">
+        <v>2.882</v>
+      </c>
       <c r="J391" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K391" t="inlineStr">
         <is>
@@ -13563,13 +13521,13 @@
         <v>-19097770.05053086</v>
       </c>
       <c r="H392" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I392" t="n">
         <v>2.868</v>
       </c>
       <c r="J392" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K392" t="inlineStr">
         <is>
@@ -13604,11 +13562,13 @@
         <v>-19106326.69363086</v>
       </c>
       <c r="H393" t="n">
-        <v>0</v>
-      </c>
-      <c r="I393" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I393" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J393" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K393" t="inlineStr">
         <is>
@@ -13647,7 +13607,7 @@
       </c>
       <c r="I394" t="inlineStr"/>
       <c r="J394" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K394" t="inlineStr">
         <is>
@@ -13686,7 +13646,7 @@
       </c>
       <c r="I395" t="inlineStr"/>
       <c r="J395" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K395" t="inlineStr">
         <is>
@@ -13725,7 +13685,7 @@
       </c>
       <c r="I396" t="inlineStr"/>
       <c r="J396" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K396" t="inlineStr">
         <is>
@@ -13764,7 +13724,7 @@
       </c>
       <c r="I397" t="inlineStr"/>
       <c r="J397" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K397" t="inlineStr">
         <is>
@@ -13803,7 +13763,7 @@
       </c>
       <c r="I398" t="inlineStr"/>
       <c r="J398" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K398" t="inlineStr">
         <is>
@@ -13842,7 +13802,7 @@
       </c>
       <c r="I399" t="inlineStr"/>
       <c r="J399" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K399" t="inlineStr">
         <is>
@@ -13881,7 +13841,7 @@
       </c>
       <c r="I400" t="inlineStr"/>
       <c r="J400" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K400" t="inlineStr">
         <is>
@@ -13916,11 +13876,13 @@
         <v>-19151090.58423086</v>
       </c>
       <c r="H401" t="n">
-        <v>0</v>
-      </c>
-      <c r="I401" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I401" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J401" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K401" t="inlineStr">
         <is>
@@ -13955,11 +13917,13 @@
         <v>-19150086.58423086</v>
       </c>
       <c r="H402" t="n">
-        <v>0</v>
-      </c>
-      <c r="I402" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I402" t="n">
+        <v>2.871</v>
+      </c>
       <c r="J402" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K402" t="inlineStr">
         <is>
@@ -13994,11 +13958,13 @@
         <v>-19150513.58423086</v>
       </c>
       <c r="H403" t="n">
-        <v>0</v>
-      </c>
-      <c r="I403" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I403" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J403" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K403" t="inlineStr">
         <is>
@@ -14033,11 +13999,13 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H404" t="n">
-        <v>0</v>
-      </c>
-      <c r="I404" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I404" t="n">
+        <v>2.889</v>
+      </c>
       <c r="J404" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K404" t="inlineStr">
         <is>
@@ -14072,11 +14040,13 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H405" t="n">
-        <v>0</v>
-      </c>
-      <c r="I405" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I405" t="n">
+        <v>2.875</v>
+      </c>
       <c r="J405" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K405" t="inlineStr">
         <is>
@@ -14115,7 +14085,7 @@
       </c>
       <c r="I406" t="inlineStr"/>
       <c r="J406" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K406" t="inlineStr">
         <is>
@@ -14154,7 +14124,7 @@
       </c>
       <c r="I407" t="inlineStr"/>
       <c r="J407" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K407" t="inlineStr">
         <is>
@@ -14193,7 +14163,7 @@
       </c>
       <c r="I408" t="inlineStr"/>
       <c r="J408" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K408" t="inlineStr">
         <is>
@@ -14232,7 +14202,7 @@
       </c>
       <c r="I409" t="inlineStr"/>
       <c r="J409" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K409" t="inlineStr">
         <is>
@@ -14271,7 +14241,7 @@
       </c>
       <c r="I410" t="inlineStr"/>
       <c r="J410" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K410" t="inlineStr">
         <is>
@@ -14310,7 +14280,7 @@
       </c>
       <c r="I411" t="inlineStr"/>
       <c r="J411" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K411" t="inlineStr">
         <is>
@@ -14349,7 +14319,7 @@
       </c>
       <c r="I412" t="inlineStr"/>
       <c r="J412" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K412" t="inlineStr">
         <is>
@@ -14388,7 +14358,7 @@
       </c>
       <c r="I413" t="inlineStr"/>
       <c r="J413" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K413" t="inlineStr">
         <is>
@@ -14427,7 +14397,7 @@
       </c>
       <c r="I414" t="inlineStr"/>
       <c r="J414" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K414" t="inlineStr">
         <is>
@@ -14466,7 +14436,7 @@
       </c>
       <c r="I415" t="inlineStr"/>
       <c r="J415" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K415" t="inlineStr">
         <is>
@@ -14505,7 +14475,7 @@
       </c>
       <c r="I416" t="inlineStr"/>
       <c r="J416" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K416" t="inlineStr">
         <is>
@@ -14544,7 +14514,7 @@
       </c>
       <c r="I417" t="inlineStr"/>
       <c r="J417" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K417" t="inlineStr">
         <is>
@@ -14583,7 +14553,7 @@
       </c>
       <c r="I418" t="inlineStr"/>
       <c r="J418" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K418" t="inlineStr">
         <is>
@@ -14622,7 +14592,7 @@
       </c>
       <c r="I419" t="inlineStr"/>
       <c r="J419" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K419" t="inlineStr">
         <is>
@@ -14661,7 +14631,7 @@
       </c>
       <c r="I420" t="inlineStr"/>
       <c r="J420" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K420" t="inlineStr">
         <is>
@@ -14700,7 +14670,7 @@
       </c>
       <c r="I421" t="inlineStr"/>
       <c r="J421" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K421" t="inlineStr">
         <is>
@@ -14739,7 +14709,7 @@
       </c>
       <c r="I422" t="inlineStr"/>
       <c r="J422" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K422" t="inlineStr">
         <is>
@@ -14778,7 +14748,7 @@
       </c>
       <c r="I423" t="inlineStr"/>
       <c r="J423" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K423" t="inlineStr">
         <is>
@@ -14817,7 +14787,7 @@
       </c>
       <c r="I424" t="inlineStr"/>
       <c r="J424" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K424" t="inlineStr">
         <is>
@@ -14852,13 +14822,11 @@
         <v>-19485173.65064197</v>
       </c>
       <c r="H425" t="n">
-        <v>2</v>
-      </c>
-      <c r="I425" t="n">
-        <v>2.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I425" t="inlineStr"/>
       <c r="J425" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K425" t="inlineStr">
         <is>
@@ -14893,13 +14861,11 @@
         <v>-19483885.65064197</v>
       </c>
       <c r="H426" t="n">
-        <v>2</v>
-      </c>
-      <c r="I426" t="n">
-        <v>2.885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I426" t="inlineStr"/>
       <c r="J426" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K426" t="inlineStr">
         <is>
@@ -14938,7 +14904,7 @@
       </c>
       <c r="I427" t="inlineStr"/>
       <c r="J427" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K427" t="inlineStr">
         <is>
@@ -14973,13 +14939,11 @@
         <v>-19414346.73734197</v>
       </c>
       <c r="H428" t="n">
-        <v>2</v>
-      </c>
-      <c r="I428" t="n">
-        <v>2.885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I428" t="inlineStr"/>
       <c r="J428" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K428" t="inlineStr">
         <is>
@@ -15018,7 +14982,7 @@
       </c>
       <c r="I429" t="inlineStr"/>
       <c r="J429" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K429" t="inlineStr">
         <is>
@@ -15057,7 +15021,7 @@
       </c>
       <c r="I430" t="inlineStr"/>
       <c r="J430" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K430" t="inlineStr">
         <is>
@@ -15096,7 +15060,7 @@
       </c>
       <c r="I431" t="inlineStr"/>
       <c r="J431" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K431" t="inlineStr">
         <is>
@@ -15135,7 +15099,7 @@
       </c>
       <c r="I432" t="inlineStr"/>
       <c r="J432" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K432" t="inlineStr">
         <is>
@@ -15174,7 +15138,7 @@
       </c>
       <c r="I433" t="inlineStr"/>
       <c r="J433" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K433" t="inlineStr">
         <is>
@@ -15213,7 +15177,7 @@
       </c>
       <c r="I434" t="inlineStr"/>
       <c r="J434" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K434" t="inlineStr">
         <is>
@@ -15252,7 +15216,7 @@
       </c>
       <c r="I435" t="inlineStr"/>
       <c r="J435" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K435" t="inlineStr">
         <is>
@@ -15287,13 +15251,11 @@
         <v>-19893433.90354197</v>
       </c>
       <c r="H436" t="n">
-        <v>2</v>
-      </c>
-      <c r="I436" t="n">
-        <v>2.887</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I436" t="inlineStr"/>
       <c r="J436" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K436" t="inlineStr">
         <is>
@@ -15332,7 +15294,7 @@
       </c>
       <c r="I437" t="inlineStr"/>
       <c r="J437" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K437" t="inlineStr">
         <is>
@@ -15367,13 +15329,11 @@
         <v>-19872338.90564197</v>
       </c>
       <c r="H438" t="n">
-        <v>2</v>
-      </c>
-      <c r="I438" t="n">
-        <v>2.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I438" t="inlineStr"/>
       <c r="J438" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K438" t="inlineStr">
         <is>
@@ -15408,13 +15368,11 @@
         <v>-19872161.90564197</v>
       </c>
       <c r="H439" t="n">
-        <v>2</v>
-      </c>
-      <c r="I439" t="n">
-        <v>2.888</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I439" t="inlineStr"/>
       <c r="J439" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K439" t="inlineStr">
         <is>
@@ -15449,13 +15407,11 @@
         <v>-20218654.96554197</v>
       </c>
       <c r="H440" t="n">
-        <v>2</v>
-      </c>
-      <c r="I440" t="n">
-        <v>2.895</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I440" t="inlineStr"/>
       <c r="J440" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K440" t="inlineStr">
         <is>
@@ -15490,13 +15446,11 @@
         <v>-20218300.96554197</v>
       </c>
       <c r="H441" t="n">
-        <v>2</v>
-      </c>
-      <c r="I441" t="n">
-        <v>2.881</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I441" t="inlineStr"/>
       <c r="J441" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K441" t="inlineStr">
         <is>
@@ -15531,13 +15485,11 @@
         <v>-20218300.96554197</v>
       </c>
       <c r="H442" t="n">
-        <v>2</v>
-      </c>
-      <c r="I442" t="n">
-        <v>2.897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I442" t="inlineStr"/>
       <c r="J442" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K442" t="inlineStr">
         <is>
@@ -15572,13 +15524,11 @@
         <v>-20218300.96554197</v>
       </c>
       <c r="H443" t="n">
-        <v>2</v>
-      </c>
-      <c r="I443" t="n">
-        <v>2.897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I443" t="inlineStr"/>
       <c r="J443" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K443" t="inlineStr">
         <is>
@@ -15613,13 +15563,11 @@
         <v>-20256221.81774197</v>
       </c>
       <c r="H444" t="n">
-        <v>2</v>
-      </c>
-      <c r="I444" t="n">
-        <v>2.897</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I444" t="inlineStr"/>
       <c r="J444" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K444" t="inlineStr">
         <is>
@@ -15658,7 +15606,7 @@
       </c>
       <c r="I445" t="inlineStr"/>
       <c r="J445" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K445" t="inlineStr">
         <is>
@@ -15697,7 +15645,7 @@
       </c>
       <c r="I446" t="inlineStr"/>
       <c r="J446" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K446" t="inlineStr">
         <is>
@@ -15736,7 +15684,7 @@
       </c>
       <c r="I447" t="inlineStr"/>
       <c r="J447" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K447" t="inlineStr">
         <is>
@@ -15771,13 +15719,11 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H448" t="n">
-        <v>2</v>
-      </c>
-      <c r="I448" t="n">
-        <v>2.885</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I448" t="inlineStr"/>
       <c r="J448" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K448" t="inlineStr">
         <is>
@@ -15812,13 +15758,11 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H449" t="n">
-        <v>2</v>
-      </c>
-      <c r="I449" t="n">
-        <v>2.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I449" t="inlineStr"/>
       <c r="J449" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K449" t="inlineStr">
         <is>
@@ -15853,13 +15797,11 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H450" t="n">
-        <v>2</v>
-      </c>
-      <c r="I450" t="n">
-        <v>2.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I450" t="inlineStr"/>
       <c r="J450" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K450" t="inlineStr">
         <is>
@@ -15894,13 +15836,11 @@
         <v>-20119154.35594197</v>
       </c>
       <c r="H451" t="n">
-        <v>2</v>
-      </c>
-      <c r="I451" t="n">
-        <v>2.898</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I451" t="inlineStr"/>
       <c r="J451" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K451" t="inlineStr">
         <is>
@@ -15935,13 +15875,11 @@
         <v>-20118954.35594197</v>
       </c>
       <c r="H452" t="n">
-        <v>2</v>
-      </c>
-      <c r="I452" t="n">
-        <v>2.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I452" t="inlineStr"/>
       <c r="J452" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K452" t="inlineStr">
         <is>
@@ -15980,7 +15918,7 @@
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K453" t="inlineStr">
         <is>
@@ -16015,13 +15953,11 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
-      </c>
-      <c r="I454" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I454" t="inlineStr"/>
       <c r="J454" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K454" t="inlineStr">
         <is>
@@ -16056,13 +15992,11 @@
         <v>-20118177.35594197</v>
       </c>
       <c r="H455" t="n">
-        <v>2</v>
-      </c>
-      <c r="I455" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I455" t="inlineStr"/>
       <c r="J455" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K455" t="inlineStr">
         <is>
@@ -16097,13 +16031,11 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H456" t="n">
-        <v>2</v>
-      </c>
-      <c r="I456" t="n">
-        <v>2.914</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I456" t="inlineStr"/>
       <c r="J456" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K456" t="inlineStr">
         <is>
@@ -16138,13 +16070,11 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I457" t="inlineStr"/>
       <c r="J457" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K457" t="inlineStr">
         <is>
@@ -16183,7 +16113,7 @@
       </c>
       <c r="I458" t="inlineStr"/>
       <c r="J458" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K458" t="inlineStr">
         <is>
@@ -16218,13 +16148,11 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H459" t="n">
-        <v>2</v>
-      </c>
-      <c r="I459" t="n">
-        <v>2.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I459" t="inlineStr"/>
       <c r="J459" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K459" t="inlineStr">
         <is>
@@ -16259,13 +16187,11 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="n">
-        <v>2.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I460" t="inlineStr"/>
       <c r="J460" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K460" t="inlineStr">
         <is>
@@ -16300,13 +16226,11 @@
         <v>-20124047.42264197</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="n">
-        <v>2.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I461" t="inlineStr"/>
       <c r="J461" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K461" t="inlineStr">
         <is>
@@ -16341,13 +16265,11 @@
         <v>-20122847.42264197</v>
       </c>
       <c r="H462" t="n">
-        <v>2</v>
-      </c>
-      <c r="I462" t="n">
-        <v>2.906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I462" t="inlineStr"/>
       <c r="J462" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K462" t="inlineStr">
         <is>
@@ -16382,13 +16304,11 @@
         <v>-20127617.20064197</v>
       </c>
       <c r="H463" t="n">
-        <v>2</v>
-      </c>
-      <c r="I463" t="n">
-        <v>2.915</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I463" t="inlineStr"/>
       <c r="J463" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K463" t="inlineStr">
         <is>
@@ -16423,13 +16343,11 @@
         <v>-20142617.20064197</v>
       </c>
       <c r="H464" t="n">
-        <v>2</v>
-      </c>
-      <c r="I464" t="n">
-        <v>2.906</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I464" t="inlineStr"/>
       <c r="J464" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K464" t="inlineStr">
         <is>
@@ -16464,13 +16382,13 @@
         <v>-20142147.20064197</v>
       </c>
       <c r="H465" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I465" t="n">
         <v>2.9</v>
       </c>
       <c r="J465" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K465" t="inlineStr">
         <is>
@@ -16505,13 +16423,13 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H466" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I466" t="n">
         <v>2.911</v>
       </c>
       <c r="J466" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K466" t="inlineStr">
         <is>
@@ -16546,13 +16464,11 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H467" t="n">
-        <v>2</v>
-      </c>
-      <c r="I467" t="n">
-        <v>2.913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I467" t="inlineStr"/>
       <c r="J467" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K467" t="inlineStr">
         <is>
@@ -16587,13 +16503,11 @@
         <v>-20141124.20064197</v>
       </c>
       <c r="H468" t="n">
-        <v>2</v>
-      </c>
-      <c r="I468" t="n">
-        <v>2.913</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I468" t="inlineStr"/>
       <c r="J468" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K468" t="inlineStr">
         <is>
@@ -16628,13 +16542,11 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H469" t="n">
-        <v>2</v>
-      </c>
-      <c r="I469" t="n">
-        <v>2.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I469" t="inlineStr"/>
       <c r="J469" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K469" t="inlineStr">
         <is>
@@ -16669,13 +16581,11 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H470" t="n">
-        <v>2</v>
-      </c>
-      <c r="I470" t="n">
-        <v>2.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I470" t="inlineStr"/>
       <c r="J470" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K470" t="inlineStr">
         <is>
@@ -16710,13 +16620,11 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H471" t="n">
-        <v>2</v>
-      </c>
-      <c r="I471" t="n">
-        <v>2.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I471" t="inlineStr"/>
       <c r="J471" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K471" t="inlineStr">
         <is>
@@ -16751,13 +16659,11 @@
         <v>-20297876.43544197</v>
       </c>
       <c r="H472" t="n">
-        <v>2</v>
-      </c>
-      <c r="I472" t="n">
-        <v>2.911</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I472" t="inlineStr"/>
       <c r="J472" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K472" t="inlineStr">
         <is>
@@ -16796,7 +16702,7 @@
       </c>
       <c r="I473" t="inlineStr"/>
       <c r="J473" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K473" t="inlineStr">
         <is>
@@ -16831,11 +16737,13 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.909</v>
+      </c>
       <c r="J474" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K474" t="inlineStr">
         <is>
@@ -16870,13 +16778,13 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H475" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="I475" t="n">
         <v>2.909</v>
       </c>
       <c r="J475" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K475" t="inlineStr">
         <is>
@@ -16911,11 +16819,13 @@
         <v>-19387751.92944197</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2.909</v>
+      </c>
       <c r="J476" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K476" t="inlineStr">
         <is>
@@ -16952,9 +16862,11 @@
       <c r="H477" t="n">
         <v>1</v>
       </c>
-      <c r="I477" t="inlineStr"/>
+      <c r="I477" t="n">
+        <v>2.905</v>
+      </c>
       <c r="J477" t="n">
-        <v>2.939</v>
+        <v>2.926</v>
       </c>
       <c r="K477" t="inlineStr">
         <is>
@@ -16967,6 +16879,6 @@
       <c r="M477" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest FNB.xlsx
+++ b/BackTest/2020-01-13 BackTest FNB.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -54,18 +54,18 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="2">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf applyAlignment="1" borderId="1" fillId="0" fontId="1" numFmtId="0" pivotButton="0" quotePrefix="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" hidden="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium9"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
 </styleSheet>
 </file>
 
@@ -394,7 +394,7 @@
       </c>
       <c r="G1" s="1" t="inlineStr">
         <is>
-          <t>CMO</t>
+          <t>OBV</t>
         </is>
       </c>
       <c r="H1" s="1" t="inlineStr">
@@ -748,7 +748,7 @@
         <v>483772.9518773334</v>
       </c>
       <c r="H11" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I11" t="inlineStr"/>
       <c r="J11" t="inlineStr"/>
@@ -781,7 +781,7 @@
         <v>483772.9518773334</v>
       </c>
       <c r="H12" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="J12" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4139219.196822667</v>
       </c>
       <c r="H13" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5575620.281722667</v>
       </c>
       <c r="H14" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -880,7 +880,7 @@
         <v>-5575443.281722667</v>
       </c>
       <c r="H15" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I15" t="inlineStr"/>
       <c r="J15" t="inlineStr"/>
@@ -913,7 +913,7 @@
         <v>-5575443.281722667</v>
       </c>
       <c r="H16" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I16" t="inlineStr"/>
       <c r="J16" t="inlineStr"/>
@@ -946,7 +946,7 @@
         <v>-5574493.281722667</v>
       </c>
       <c r="H17" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I17" t="inlineStr"/>
       <c r="J17" t="inlineStr"/>
@@ -1012,7 +1012,7 @@
         <v>-5575996.281722667</v>
       </c>
       <c r="H19" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I19" t="inlineStr"/>
       <c r="J19" t="inlineStr"/>
@@ -1507,7 +1507,7 @@
         <v>-5345097.809722667</v>
       </c>
       <c r="H34" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I34" t="inlineStr"/>
       <c r="J34" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3126447.600522667</v>
       </c>
       <c r="H55" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H56" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H57" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H58" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H59" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H60" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H61" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H62" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H63" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H64" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H67" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3636663.725122667</v>
       </c>
       <c r="H68" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3775924.725122667</v>
       </c>
       <c r="H69" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3691484.725122667</v>
       </c>
       <c r="H70" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H71" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H72" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2794,7 +2794,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H73" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I73" t="inlineStr"/>
       <c r="J73" t="inlineStr"/>
@@ -2827,7 +2827,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H74" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I74" t="inlineStr"/>
       <c r="J74" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H75" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -3586,7 +3586,7 @@
         <v>-3203398.845322667</v>
       </c>
       <c r="H97" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I97" t="inlineStr"/>
       <c r="J97" t="inlineStr"/>
@@ -3619,7 +3619,7 @@
         <v>-3203798.845322667</v>
       </c>
       <c r="H98" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I98" t="inlineStr"/>
       <c r="J98" t="inlineStr"/>
@@ -3652,7 +3652,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H99" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I99" t="inlineStr"/>
       <c r="J99" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H100" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H101" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H102" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H103" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H104" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H105" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H106" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3218782.011122667</v>
       </c>
       <c r="H107" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4019521.375022667</v>
       </c>
       <c r="H108" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -3982,7 +3982,7 @@
         <v>-3831121.997322666</v>
       </c>
       <c r="H109" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I109" t="inlineStr"/>
       <c r="J109" t="inlineStr"/>
@@ -4015,7 +4015,7 @@
         <v>-3830455.997322666</v>
       </c>
       <c r="H110" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I110" t="inlineStr"/>
       <c r="J110" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H111" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H114" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H115" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3834866.997322666</v>
       </c>
       <c r="H117" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4279,7 +4279,7 @@
         <v>-3736648.279522666</v>
       </c>
       <c r="H118" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I118" t="inlineStr"/>
       <c r="J118" t="inlineStr"/>
@@ -4312,7 +4312,7 @@
         <v>-3737759.279522666</v>
       </c>
       <c r="H119" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I119" t="inlineStr"/>
       <c r="J119" t="inlineStr"/>
@@ -4345,7 +4345,7 @@
         <v>-3475214.238522666</v>
       </c>
       <c r="H120" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I120" t="inlineStr"/>
       <c r="J120" t="inlineStr"/>
@@ -4378,7 +4378,7 @@
         <v>-4213740.592122667</v>
       </c>
       <c r="H121" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I121" t="inlineStr"/>
       <c r="J121" t="inlineStr"/>
@@ -4411,7 +4411,7 @@
         <v>-4213518.592122667</v>
       </c>
       <c r="H122" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I122" t="inlineStr"/>
       <c r="J122" t="inlineStr"/>
@@ -4444,7 +4444,7 @@
         <v>-4350662.033522666</v>
       </c>
       <c r="H123" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I123" t="inlineStr"/>
       <c r="J123" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4350662.033522666</v>
       </c>
       <c r="H124" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4351862.033522666</v>
       </c>
       <c r="H125" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -4543,7 +4543,7 @@
         <v>-4352306.033522666</v>
       </c>
       <c r="H126" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I126" t="inlineStr"/>
       <c r="J126" t="inlineStr"/>
@@ -4576,7 +4576,7 @@
         <v>-4362811.033522666</v>
       </c>
       <c r="H127" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I127" t="inlineStr"/>
       <c r="J127" t="inlineStr"/>
@@ -4609,7 +4609,7 @@
         <v>-4362589.033522666</v>
       </c>
       <c r="H128" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I128" t="inlineStr"/>
       <c r="J128" t="inlineStr"/>
@@ -4642,7 +4642,7 @@
         <v>-4362589.033522666</v>
       </c>
       <c r="H129" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I129" t="inlineStr"/>
       <c r="J129" t="inlineStr"/>
@@ -4675,7 +4675,7 @@
         <v>-4364233.033522666</v>
       </c>
       <c r="H130" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I130" t="inlineStr"/>
       <c r="J130" t="inlineStr"/>
@@ -4708,7 +4708,7 @@
         <v>-4365433.033522666</v>
       </c>
       <c r="H131" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I131" t="inlineStr"/>
       <c r="J131" t="inlineStr"/>
@@ -4741,7 +4741,7 @@
         <v>-4384989.033522666</v>
       </c>
       <c r="H132" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I132" t="inlineStr"/>
       <c r="J132" t="inlineStr"/>
@@ -4774,7 +4774,7 @@
         <v>-4384989.033522666</v>
       </c>
       <c r="H133" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I133" t="inlineStr"/>
       <c r="J133" t="inlineStr"/>
@@ -4807,7 +4807,7 @@
         <v>-4384989.033522666</v>
       </c>
       <c r="H134" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I134" t="inlineStr"/>
       <c r="J134" t="inlineStr"/>
@@ -4840,7 +4840,7 @@
         <v>-4656413.283322667</v>
       </c>
       <c r="H135" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I135" t="inlineStr"/>
       <c r="J135" t="inlineStr"/>
@@ -4873,7 +4873,7 @@
         <v>-4858825.427422667</v>
       </c>
       <c r="H136" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I136" t="inlineStr"/>
       <c r="J136" t="inlineStr"/>
@@ -4906,7 +4906,7 @@
         <v>-4857537.427422667</v>
       </c>
       <c r="H137" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I137" t="inlineStr"/>
       <c r="J137" t="inlineStr"/>
@@ -4939,7 +4939,7 @@
         <v>-4857770.427422667</v>
       </c>
       <c r="H138" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I138" t="inlineStr"/>
       <c r="J138" t="inlineStr"/>
@@ -4972,7 +4972,7 @@
         <v>-5077759.534222667</v>
       </c>
       <c r="H139" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I139" t="inlineStr"/>
       <c r="J139" t="inlineStr"/>
@@ -5038,7 +5038,7 @@
         <v>-5037400.805922667</v>
       </c>
       <c r="H141" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I141" t="inlineStr"/>
       <c r="J141" t="inlineStr"/>
@@ -5071,7 +5071,7 @@
         <v>-5037400.805922667</v>
       </c>
       <c r="H142" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I142" t="inlineStr"/>
       <c r="J142" t="inlineStr"/>
@@ -5104,7 +5104,7 @@
         <v>-5037178.805922667</v>
       </c>
       <c r="H143" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I143" t="inlineStr"/>
       <c r="J143" t="inlineStr"/>
@@ -5137,7 +5137,7 @@
         <v>-5046066.805922667</v>
       </c>
       <c r="H144" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I144" t="inlineStr"/>
       <c r="J144" t="inlineStr"/>
@@ -5170,7 +5170,7 @@
         <v>-5045622.805922667</v>
       </c>
       <c r="H145" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I145" t="inlineStr"/>
       <c r="J145" t="inlineStr"/>
@@ -5203,7 +5203,7 @@
         <v>-5045622.805922667</v>
       </c>
       <c r="H146" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I146" t="inlineStr"/>
       <c r="J146" t="inlineStr"/>
@@ -5236,7 +5236,7 @@
         <v>-5029086.525722668</v>
       </c>
       <c r="H147" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I147" t="inlineStr"/>
       <c r="J147" t="inlineStr"/>
@@ -5269,7 +5269,7 @@
         <v>-5029086.525722668</v>
       </c>
       <c r="H148" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I148" t="inlineStr"/>
       <c r="J148" t="inlineStr"/>
@@ -5302,7 +5302,7 @@
         <v>-5035750.525722668</v>
       </c>
       <c r="H149" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I149" t="inlineStr"/>
       <c r="J149" t="inlineStr"/>
@@ -5335,7 +5335,7 @@
         <v>-5048014.452622668</v>
       </c>
       <c r="H150" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I150" t="inlineStr"/>
       <c r="J150" t="inlineStr"/>
@@ -5368,7 +5368,7 @@
         <v>-5048014.452622668</v>
       </c>
       <c r="H151" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I151" t="inlineStr"/>
       <c r="J151" t="inlineStr"/>
@@ -5401,7 +5401,7 @@
         <v>-5041486.659722668</v>
       </c>
       <c r="H152" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I152" t="inlineStr"/>
       <c r="J152" t="inlineStr"/>
@@ -5599,7 +5599,7 @@
         <v>-5002550.329522668</v>
       </c>
       <c r="H158" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I158" t="inlineStr"/>
       <c r="J158" t="inlineStr"/>
@@ -5764,7 +5764,7 @@
         <v>-5023649.329522668</v>
       </c>
       <c r="H163" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I163" t="inlineStr"/>
       <c r="J163" t="inlineStr"/>
@@ -5797,7 +5797,7 @@
         <v>-5023649.329522668</v>
       </c>
       <c r="H164" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I164" t="inlineStr"/>
       <c r="J164" t="inlineStr"/>
@@ -5830,7 +5830,7 @@
         <v>-5023649.329522668</v>
       </c>
       <c r="H165" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I165" t="inlineStr"/>
       <c r="J165" t="inlineStr"/>
@@ -5863,7 +5863,7 @@
         <v>-5003549.329522668</v>
       </c>
       <c r="H166" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I166" t="inlineStr"/>
       <c r="J166" t="inlineStr"/>
@@ -5896,7 +5896,7 @@
         <v>-5003549.329522668</v>
       </c>
       <c r="H167" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I167" t="inlineStr"/>
       <c r="J167" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4276729.734822668</v>
       </c>
       <c r="H168" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H169" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H170" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3984272.329522668</v>
       </c>
       <c r="H171" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H173" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H174" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H175" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3982516.329522668</v>
       </c>
       <c r="H176" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3982166.329522668</v>
       </c>
       <c r="H177" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-3983454.329522668</v>
       </c>
       <c r="H178" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H179" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H180" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4050027.814122668</v>
       </c>
       <c r="H181" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4023287.096122669</v>
       </c>
       <c r="H182" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4092067.976522669</v>
       </c>
       <c r="H183" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6457,7 +6457,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H184" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I184" t="inlineStr"/>
       <c r="J184" t="inlineStr"/>
@@ -6490,7 +6490,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H185" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I185" t="inlineStr"/>
       <c r="J185" t="inlineStr"/>
@@ -6523,7 +6523,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H186" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I186" t="inlineStr"/>
       <c r="J186" t="inlineStr"/>
@@ -6556,7 +6556,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H187" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I187" t="inlineStr"/>
       <c r="J187" t="inlineStr"/>
@@ -6589,7 +6589,7 @@
         <v>-4223800.637322669</v>
       </c>
       <c r="H188" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I188" t="inlineStr"/>
       <c r="J188" t="inlineStr"/>
@@ -6622,7 +6622,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H189" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I189" t="inlineStr"/>
       <c r="J189" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H190" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H191" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5240320.202822668</v>
       </c>
       <c r="H192" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5239619.202822668</v>
       </c>
       <c r="H193" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6787,7 +6787,7 @@
         <v>-5239619.202822668</v>
       </c>
       <c r="H194" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I194" t="inlineStr"/>
       <c r="J194" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5235973.861722669</v>
       </c>
       <c r="H195" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H196" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H197" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5236639.861722669</v>
       </c>
       <c r="H198" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5239739.861722669</v>
       </c>
       <c r="H199" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -7348,7 +7348,7 @@
         <v>-8592701.052522669</v>
       </c>
       <c r="H211" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I211" t="inlineStr"/>
       <c r="J211" t="inlineStr"/>
@@ -7381,7 +7381,7 @@
         <v>-8592701.052522669</v>
       </c>
       <c r="H212" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I212" t="inlineStr"/>
       <c r="J212" t="inlineStr"/>
@@ -7414,7 +7414,7 @@
         <v>-8592701.052522669</v>
       </c>
       <c r="H213" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I213" t="inlineStr"/>
       <c r="J213" t="inlineStr"/>
@@ -7447,7 +7447,7 @@
         <v>-8567792.326722668</v>
       </c>
       <c r="H214" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I214" t="inlineStr"/>
       <c r="J214" t="inlineStr"/>
@@ -7480,7 +7480,7 @@
         <v>-8560430.686522668</v>
       </c>
       <c r="H215" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I215" t="inlineStr"/>
       <c r="J215" t="inlineStr"/>
@@ -7513,7 +7513,7 @@
         <v>-8554024.048222668</v>
       </c>
       <c r="H216" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I216" t="inlineStr"/>
       <c r="J216" t="inlineStr"/>
@@ -7546,7 +7546,7 @@
         <v>-8554848.604022669</v>
       </c>
       <c r="H217" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I217" t="inlineStr"/>
       <c r="J217" t="inlineStr"/>
@@ -7579,7 +7579,7 @@
         <v>-8547779.109822668</v>
       </c>
       <c r="H218" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I218" t="inlineStr"/>
       <c r="J218" t="inlineStr"/>
@@ -7711,7 +7711,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H222" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I222" t="inlineStr"/>
       <c r="J222" t="inlineStr"/>
@@ -7744,7 +7744,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H223" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I223" t="inlineStr"/>
       <c r="J223" t="inlineStr"/>
@@ -7777,7 +7777,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H224" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I224" t="inlineStr"/>
       <c r="J224" t="inlineStr"/>
@@ -7810,7 +7810,7 @@
         <v>-8633994.057822669</v>
       </c>
       <c r="H225" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I225" t="inlineStr"/>
       <c r="J225" t="inlineStr"/>
@@ -7843,7 +7843,7 @@
         <v>-8550942.468422668</v>
       </c>
       <c r="H226" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I226" t="inlineStr"/>
       <c r="J226" t="inlineStr"/>
@@ -7876,7 +7876,7 @@
         <v>-8590942.468422668</v>
       </c>
       <c r="H227" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I227" t="inlineStr"/>
       <c r="J227" t="inlineStr"/>
@@ -7909,7 +7909,7 @@
         <v>-8589831.468422668</v>
       </c>
       <c r="H228" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I228" t="inlineStr"/>
       <c r="J228" t="inlineStr"/>
@@ -8206,7 +8206,7 @@
         <v>-8489793.457530877</v>
       </c>
       <c r="H237" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I237" t="inlineStr"/>
       <c r="J237" t="inlineStr"/>
@@ -8239,7 +8239,7 @@
         <v>-8490046.483830877</v>
       </c>
       <c r="H238" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I238" t="inlineStr"/>
       <c r="J238" t="inlineStr"/>
@@ -8272,7 +8272,7 @@
         <v>-8490046.483830877</v>
       </c>
       <c r="H239" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I239" t="inlineStr"/>
       <c r="J239" t="inlineStr"/>
@@ -8305,7 +8305,7 @@
         <v>-8492092.700530877</v>
       </c>
       <c r="H240" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I240" t="inlineStr"/>
       <c r="J240" t="inlineStr"/>
@@ -8338,7 +8338,7 @@
         <v>-8493592.700530877</v>
       </c>
       <c r="H241" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I241" t="inlineStr"/>
       <c r="J241" t="inlineStr"/>
@@ -8371,7 +8371,7 @@
         <v>-8493192.700530877</v>
       </c>
       <c r="H242" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I242" t="inlineStr"/>
       <c r="J242" t="inlineStr"/>
@@ -8404,7 +8404,7 @@
         <v>-8701357.164730877</v>
       </c>
       <c r="H243" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I243" t="inlineStr"/>
       <c r="J243" t="inlineStr"/>
@@ -8437,7 +8437,7 @@
         <v>-8700857.164730877</v>
       </c>
       <c r="H244" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I244" t="inlineStr"/>
       <c r="J244" t="inlineStr"/>
@@ -8470,7 +8470,7 @@
         <v>-8700857.164730877</v>
       </c>
       <c r="H245" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I245" t="inlineStr"/>
       <c r="J245" t="inlineStr"/>
@@ -8503,7 +8503,7 @@
         <v>-8964451.439630877</v>
       </c>
       <c r="H246" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I246" t="inlineStr"/>
       <c r="J246" t="inlineStr"/>
@@ -8536,7 +8536,7 @@
         <v>-10194495.68133088</v>
       </c>
       <c r="H247" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I247" t="inlineStr"/>
       <c r="J247" t="inlineStr"/>
@@ -8569,7 +8569,7 @@
         <v>-10194495.68133088</v>
       </c>
       <c r="H248" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I248" t="inlineStr"/>
       <c r="J248" t="inlineStr"/>
@@ -8602,7 +8602,7 @@
         <v>-10194318.68133088</v>
       </c>
       <c r="H249" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I249" t="inlineStr"/>
       <c r="J249" t="inlineStr"/>
@@ -8635,7 +8635,7 @@
         <v>-10194318.68133088</v>
       </c>
       <c r="H250" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I250" t="inlineStr"/>
       <c r="J250" t="inlineStr"/>
@@ -8734,7 +8734,7 @@
         <v>-10194495.68133088</v>
       </c>
       <c r="H253" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I253" t="inlineStr"/>
       <c r="J253" t="inlineStr"/>
@@ -8800,7 +8800,7 @@
         <v>-10198939.68133088</v>
       </c>
       <c r="H255" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I255" t="inlineStr"/>
       <c r="J255" t="inlineStr"/>
@@ -8833,7 +8833,7 @@
         <v>-10328758.59943088</v>
       </c>
       <c r="H256" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I256" t="inlineStr"/>
       <c r="J256" t="inlineStr"/>
@@ -8866,7 +8866,7 @@
         <v>-10410661.82913087</v>
       </c>
       <c r="H257" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I257" t="inlineStr"/>
       <c r="J257" t="inlineStr"/>
@@ -8899,7 +8899,7 @@
         <v>-10410661.82913087</v>
       </c>
       <c r="H258" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I258" t="inlineStr"/>
       <c r="J258" t="inlineStr"/>
@@ -8932,7 +8932,7 @@
         <v>-10398346.16253087</v>
       </c>
       <c r="H259" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I259" t="inlineStr"/>
       <c r="J259" t="inlineStr"/>
@@ -8965,7 +8965,7 @@
         <v>-10350098.00143087</v>
       </c>
       <c r="H260" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I260" t="inlineStr"/>
       <c r="J260" t="inlineStr"/>
@@ -8998,7 +8998,7 @@
         <v>-10350098.00143087</v>
       </c>
       <c r="H261" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I261" t="inlineStr"/>
       <c r="J261" t="inlineStr"/>
@@ -9031,7 +9031,7 @@
         <v>-10573367.71843087</v>
       </c>
       <c r="H262" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I262" t="inlineStr"/>
       <c r="J262" t="inlineStr"/>
@@ -9097,7 +9097,7 @@
         <v>-10405550.55383088</v>
       </c>
       <c r="H264" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I264" t="inlineStr"/>
       <c r="J264" t="inlineStr"/>
@@ -9130,7 +9130,7 @@
         <v>-10509974.54683088</v>
       </c>
       <c r="H265" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I265" t="inlineStr"/>
       <c r="J265" t="inlineStr"/>
@@ -9163,7 +9163,7 @@
         <v>-10610205.34773088</v>
       </c>
       <c r="H266" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I266" t="inlineStr"/>
       <c r="J266" t="inlineStr"/>
@@ -9196,7 +9196,7 @@
         <v>-10595740.84463087</v>
       </c>
       <c r="H267" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I267" t="inlineStr"/>
       <c r="J267" t="inlineStr"/>
@@ -9229,7 +9229,7 @@
         <v>-10565102.69743088</v>
       </c>
       <c r="H268" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I268" t="inlineStr"/>
       <c r="J268" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H350" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H351" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H352" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-18544310.05543087</v>
       </c>
       <c r="H353" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-18544560.05543087</v>
       </c>
       <c r="H354" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-18545004.05543087</v>
       </c>
       <c r="H355" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-18546615.38403087</v>
       </c>
       <c r="H356" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-18582449.14813087</v>
       </c>
       <c r="H357" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12265,14 +12265,10 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H360" t="n">
-        <v>1</v>
-      </c>
-      <c r="I360" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="J360" t="n">
-        <v>2.912</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I360" t="inlineStr"/>
+      <c r="J360" t="inlineStr"/>
       <c r="K360" t="inlineStr"/>
       <c r="L360" t="n">
         <v>1</v>
@@ -12305,14 +12301,8 @@
         <v>0</v>
       </c>
       <c r="I361" t="inlineStr"/>
-      <c r="J361" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="K361" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J361" t="inlineStr"/>
+      <c r="K361" t="inlineStr"/>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12344,14 +12334,8 @@
         <v>0</v>
       </c>
       <c r="I362" t="inlineStr"/>
-      <c r="J362" t="n">
-        <v>2.912</v>
-      </c>
-      <c r="K362" t="inlineStr">
-        <is>
-          <t>매수 대기</t>
-        </is>
-      </c>
+      <c r="J362" t="inlineStr"/>
+      <c r="K362" t="inlineStr"/>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12380,7 +12364,7 @@
         <v>-18603572.53013087</v>
       </c>
       <c r="H363" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I363" t="inlineStr"/>
       <c r="J363" t="inlineStr"/>
@@ -12413,7 +12397,7 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H364" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
@@ -12446,7 +12430,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H365" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
@@ -12479,7 +12463,7 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H366" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
@@ -12512,14 +12496,10 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H367" t="n">
-        <v>1</v>
-      </c>
-      <c r="I367" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="J367" t="n">
-        <v>2.926</v>
-      </c>
+        <v>2</v>
+      </c>
+      <c r="I367" t="inlineStr"/>
+      <c r="J367" t="inlineStr"/>
       <c r="K367" t="inlineStr"/>
       <c r="L367" t="n">
         <v>1</v>
@@ -12549,218 +12529,182 @@
         <v>-18725315.57713087</v>
       </c>
       <c r="H368" t="n">
-        <v>1</v>
-      </c>
-      <c r="I368" t="n">
+        <v>2</v>
+      </c>
+      <c r="I368" t="inlineStr"/>
+      <c r="J368" t="inlineStr"/>
+      <c r="K368" t="inlineStr"/>
+      <c r="L368" t="n">
+        <v>1</v>
+      </c>
+      <c r="M368" t="inlineStr"/>
+    </row>
+    <row r="369">
+      <c r="A369" s="1" t="n">
+        <v>367</v>
+      </c>
+      <c r="B369" t="n">
         <v>2.926</v>
       </c>
-      <c r="J368" t="n">
+      <c r="C369" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="D369" t="n">
         <v>2.926</v>
       </c>
-      <c r="K368" t="inlineStr">
+      <c r="E369" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="F369" t="n">
+        <v>50177</v>
+      </c>
+      <c r="G369" t="n">
+        <v>-18775492.57713087</v>
+      </c>
+      <c r="H369" t="n">
+        <v>2</v>
+      </c>
+      <c r="I369" t="inlineStr"/>
+      <c r="J369" t="inlineStr"/>
+      <c r="K369" t="inlineStr"/>
+      <c r="L369" t="n">
+        <v>1</v>
+      </c>
+      <c r="M369" t="inlineStr"/>
+    </row>
+    <row r="370">
+      <c r="A370" s="1" t="n">
+        <v>368</v>
+      </c>
+      <c r="B370" t="n">
+        <v>2.898</v>
+      </c>
+      <c r="C370" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="D370" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E370" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="F370" t="n">
+        <v>6177</v>
+      </c>
+      <c r="G370" t="n">
+        <v>-18781669.57713087</v>
+      </c>
+      <c r="H370" t="n">
+        <v>2</v>
+      </c>
+      <c r="I370" t="inlineStr"/>
+      <c r="J370" t="inlineStr"/>
+      <c r="K370" t="inlineStr"/>
+      <c r="L370" t="n">
+        <v>1</v>
+      </c>
+      <c r="M370" t="inlineStr"/>
+    </row>
+    <row r="371">
+      <c r="A371" s="1" t="n">
+        <v>369</v>
+      </c>
+      <c r="B371" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="C371" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="D371" t="n">
+        <v>2.926</v>
+      </c>
+      <c r="E371" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="F371" t="n">
+        <v>677</v>
+      </c>
+      <c r="G371" t="n">
+        <v>-18781669.57713087</v>
+      </c>
+      <c r="H371" t="n">
+        <v>2</v>
+      </c>
+      <c r="I371" t="inlineStr"/>
+      <c r="J371" t="inlineStr"/>
+      <c r="K371" t="inlineStr"/>
+      <c r="L371" t="n">
+        <v>1</v>
+      </c>
+      <c r="M371" t="inlineStr"/>
+    </row>
+    <row r="372">
+      <c r="A372" s="1" t="n">
+        <v>370</v>
+      </c>
+      <c r="B372" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="C372" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="D372" t="n">
+        <v>2.891</v>
+      </c>
+      <c r="E372" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="F372" t="n">
+        <v>1038938.8418</v>
+      </c>
+      <c r="G372" t="n">
+        <v>-19820608.41893087</v>
+      </c>
+      <c r="H372" t="n">
+        <v>0</v>
+      </c>
+      <c r="I372" t="inlineStr"/>
+      <c r="J372" t="inlineStr"/>
+      <c r="K372" t="inlineStr"/>
+      <c r="L372" t="n">
+        <v>1</v>
+      </c>
+      <c r="M372" t="inlineStr"/>
+    </row>
+    <row r="373">
+      <c r="A373" s="1" t="n">
+        <v>371</v>
+      </c>
+      <c r="B373" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="C373" t="n">
+        <v>2.881</v>
+      </c>
+      <c r="D373" t="n">
+        <v>2.882</v>
+      </c>
+      <c r="E373" t="n">
+        <v>2.881</v>
+      </c>
+      <c r="F373" t="n">
+        <v>150000</v>
+      </c>
+      <c r="G373" t="n">
+        <v>-19970608.41893087</v>
+      </c>
+      <c r="H373" t="n">
+        <v>1</v>
+      </c>
+      <c r="I373" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="J373" t="inlineStr"/>
+      <c r="K373" t="inlineStr">
         <is>
           <t>매수 체결</t>
         </is>
       </c>
-      <c r="L368" t="n">
-        <v>1</v>
-      </c>
-      <c r="M368" t="inlineStr"/>
-    </row>
-    <row r="369">
-      <c r="A369" s="1" t="n">
-        <v>367</v>
-      </c>
-      <c r="B369" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="C369" t="n">
-        <v>2.898</v>
-      </c>
-      <c r="D369" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E369" t="n">
-        <v>2.898</v>
-      </c>
-      <c r="F369" t="n">
-        <v>50177</v>
-      </c>
-      <c r="G369" t="n">
-        <v>-18775492.57713087</v>
-      </c>
-      <c r="H369" t="n">
-        <v>0</v>
-      </c>
-      <c r="I369" t="inlineStr"/>
-      <c r="J369" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K369" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L369" t="n">
-        <v>1</v>
-      </c>
-      <c r="M369" t="inlineStr"/>
-    </row>
-    <row r="370">
-      <c r="A370" s="1" t="n">
-        <v>368</v>
-      </c>
-      <c r="B370" t="n">
-        <v>2.898</v>
-      </c>
-      <c r="C370" t="n">
-        <v>2.891</v>
-      </c>
-      <c r="D370" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E370" t="n">
-        <v>2.891</v>
-      </c>
-      <c r="F370" t="n">
-        <v>6177</v>
-      </c>
-      <c r="G370" t="n">
-        <v>-18781669.57713087</v>
-      </c>
-      <c r="H370" t="n">
-        <v>0</v>
-      </c>
-      <c r="I370" t="inlineStr"/>
-      <c r="J370" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K370" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L370" t="n">
-        <v>1</v>
-      </c>
-      <c r="M370" t="inlineStr"/>
-    </row>
-    <row r="371">
-      <c r="A371" s="1" t="n">
-        <v>369</v>
-      </c>
-      <c r="B371" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="C371" t="n">
-        <v>2.891</v>
-      </c>
-      <c r="D371" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="E371" t="n">
-        <v>2.891</v>
-      </c>
-      <c r="F371" t="n">
-        <v>677</v>
-      </c>
-      <c r="G371" t="n">
-        <v>-18781669.57713087</v>
-      </c>
-      <c r="H371" t="n">
-        <v>1</v>
-      </c>
-      <c r="I371" t="n">
-        <v>2.891</v>
-      </c>
-      <c r="J371" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K371" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L371" t="n">
-        <v>1</v>
-      </c>
-      <c r="M371" t="inlineStr"/>
-    </row>
-    <row r="372">
-      <c r="A372" s="1" t="n">
-        <v>370</v>
-      </c>
-      <c r="B372" t="n">
-        <v>2.891</v>
-      </c>
-      <c r="C372" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="D372" t="n">
-        <v>2.891</v>
-      </c>
-      <c r="E372" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="F372" t="n">
-        <v>1038938.8418</v>
-      </c>
-      <c r="G372" t="n">
-        <v>-19820608.41893087</v>
-      </c>
-      <c r="H372" t="n">
-        <v>0</v>
-      </c>
-      <c r="I372" t="inlineStr"/>
-      <c r="J372" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K372" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
-      <c r="L372" t="n">
-        <v>1</v>
-      </c>
-      <c r="M372" t="inlineStr"/>
-    </row>
-    <row r="373">
-      <c r="A373" s="1" t="n">
-        <v>371</v>
-      </c>
-      <c r="B373" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="C373" t="n">
-        <v>2.881</v>
-      </c>
-      <c r="D373" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="E373" t="n">
-        <v>2.881</v>
-      </c>
-      <c r="F373" t="n">
-        <v>150000</v>
-      </c>
-      <c r="G373" t="n">
-        <v>-19970608.41893087</v>
-      </c>
-      <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="J373" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K373" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
       <c r="L373" t="n">
         <v>1</v>
       </c>
@@ -12794,9 +12738,7 @@
       <c r="I374" t="n">
         <v>2.881</v>
       </c>
-      <c r="J374" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J374" t="inlineStr"/>
       <c r="K374" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12830,14 +12772,10 @@
         <v>-20313327.70383087</v>
       </c>
       <c r="H375" t="n">
-        <v>1</v>
-      </c>
-      <c r="I375" t="n">
-        <v>2.872</v>
-      </c>
-      <c r="J375" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I375" t="inlineStr"/>
+      <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12871,14 +12809,10 @@
         <v>-20243985.63643087</v>
       </c>
       <c r="H376" t="n">
-        <v>1</v>
-      </c>
-      <c r="I376" t="n">
-        <v>2.863</v>
-      </c>
-      <c r="J376" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I376" t="inlineStr"/>
+      <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12917,9 +12851,7 @@
       <c r="I377" t="n">
         <v>2.881</v>
       </c>
-      <c r="J377" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J377" t="inlineStr"/>
       <c r="K377" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12958,9 +12890,7 @@
       <c r="I378" t="n">
         <v>2.889</v>
       </c>
-      <c r="J378" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J378" t="inlineStr"/>
       <c r="K378" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -12994,14 +12924,10 @@
         <v>-20099313.20503087</v>
       </c>
       <c r="H379" t="n">
-        <v>1</v>
-      </c>
-      <c r="I379" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J379" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I379" t="inlineStr"/>
+      <c r="J379" t="inlineStr"/>
       <c r="K379" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13035,14 +12961,10 @@
         <v>-20099313.20503087</v>
       </c>
       <c r="H380" t="n">
-        <v>1</v>
-      </c>
-      <c r="I380" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="J380" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I380" t="inlineStr"/>
+      <c r="J380" t="inlineStr"/>
       <c r="K380" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13076,14 +12998,10 @@
         <v>-19948313.20503087</v>
       </c>
       <c r="H381" t="n">
-        <v>1</v>
-      </c>
-      <c r="I381" t="n">
-        <v>2.862</v>
-      </c>
-      <c r="J381" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I381" t="inlineStr"/>
+      <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13122,9 +13040,7 @@
       <c r="I382" t="n">
         <v>2.863</v>
       </c>
-      <c r="J382" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13158,14 +13074,10 @@
         <v>-19647815.53023086</v>
       </c>
       <c r="H383" t="n">
-        <v>1</v>
-      </c>
-      <c r="I383" t="n">
-        <v>2.865</v>
-      </c>
-      <c r="J383" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I383" t="inlineStr"/>
+      <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13204,9 +13116,7 @@
       <c r="I384" t="n">
         <v>2.89</v>
       </c>
-      <c r="J384" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13245,9 +13155,7 @@
       <c r="I385" t="n">
         <v>2.867</v>
       </c>
-      <c r="J385" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J385" t="inlineStr"/>
       <c r="K385" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13281,14 +13189,10 @@
         <v>-18896929.00443086</v>
       </c>
       <c r="H386" t="n">
-        <v>1</v>
-      </c>
-      <c r="I386" t="n">
-        <v>2.935</v>
-      </c>
-      <c r="J386" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I386" t="inlineStr"/>
+      <c r="J386" t="inlineStr"/>
       <c r="K386" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13325,9 +13229,7 @@
         <v>0</v>
       </c>
       <c r="I387" t="inlineStr"/>
-      <c r="J387" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J387" t="inlineStr"/>
       <c r="K387" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13364,9 +13266,7 @@
         <v>0</v>
       </c>
       <c r="I388" t="inlineStr"/>
-      <c r="J388" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J388" t="inlineStr"/>
       <c r="K388" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13403,9 +13303,7 @@
         <v>0</v>
       </c>
       <c r="I389" t="inlineStr"/>
-      <c r="J389" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J389" t="inlineStr"/>
       <c r="K389" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13439,14 +13337,10 @@
         <v>-20802237.05583086</v>
       </c>
       <c r="H390" t="n">
-        <v>1</v>
-      </c>
-      <c r="I390" t="n">
-        <v>2.883</v>
-      </c>
-      <c r="J390" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I390" t="inlineStr"/>
+      <c r="J390" t="inlineStr"/>
       <c r="K390" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13480,14 +13374,10 @@
         <v>-20842237.05583086</v>
       </c>
       <c r="H391" t="n">
-        <v>1</v>
-      </c>
-      <c r="I391" t="n">
-        <v>2.882</v>
-      </c>
-      <c r="J391" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I391" t="inlineStr"/>
+      <c r="J391" t="inlineStr"/>
       <c r="K391" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13526,9 +13416,7 @@
       <c r="I392" t="n">
         <v>2.868</v>
       </c>
-      <c r="J392" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J392" t="inlineStr"/>
       <c r="K392" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13562,14 +13450,10 @@
         <v>-19106326.69363086</v>
       </c>
       <c r="H393" t="n">
-        <v>1</v>
-      </c>
-      <c r="I393" t="n">
-        <v>2.915</v>
-      </c>
-      <c r="J393" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I393" t="inlineStr"/>
+      <c r="J393" t="inlineStr"/>
       <c r="K393" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13606,9 +13490,7 @@
         <v>0</v>
       </c>
       <c r="I394" t="inlineStr"/>
-      <c r="J394" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J394" t="inlineStr"/>
       <c r="K394" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13645,9 +13527,7 @@
         <v>0</v>
       </c>
       <c r="I395" t="inlineStr"/>
-      <c r="J395" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J395" t="inlineStr"/>
       <c r="K395" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13681,12 +13561,12 @@
         <v>-19040729.42103086</v>
       </c>
       <c r="H396" t="n">
-        <v>0</v>
-      </c>
-      <c r="I396" t="inlineStr"/>
-      <c r="J396" t="n">
-        <v>2.926</v>
-      </c>
+        <v>1</v>
+      </c>
+      <c r="I396" t="n">
+        <v>2.876</v>
+      </c>
+      <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13723,9 +13603,7 @@
         <v>0</v>
       </c>
       <c r="I397" t="inlineStr"/>
-      <c r="J397" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J397" t="inlineStr"/>
       <c r="K397" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13762,9 +13640,7 @@
         <v>0</v>
       </c>
       <c r="I398" t="inlineStr"/>
-      <c r="J398" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J398" t="inlineStr"/>
       <c r="K398" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13801,9 +13677,7 @@
         <v>0</v>
       </c>
       <c r="I399" t="inlineStr"/>
-      <c r="J399" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J399" t="inlineStr"/>
       <c r="K399" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13840,9 +13714,7 @@
         <v>0</v>
       </c>
       <c r="I400" t="inlineStr"/>
-      <c r="J400" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J400" t="inlineStr"/>
       <c r="K400" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13876,14 +13748,10 @@
         <v>-19151090.58423086</v>
       </c>
       <c r="H401" t="n">
-        <v>1</v>
-      </c>
-      <c r="I401" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="J401" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I401" t="inlineStr"/>
+      <c r="J401" t="inlineStr"/>
       <c r="K401" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13917,14 +13785,10 @@
         <v>-19150086.58423086</v>
       </c>
       <c r="H402" t="n">
-        <v>1</v>
-      </c>
-      <c r="I402" t="n">
-        <v>2.871</v>
-      </c>
-      <c r="J402" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I402" t="inlineStr"/>
+      <c r="J402" t="inlineStr"/>
       <c r="K402" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -13958,14 +13822,10 @@
         <v>-19150513.58423086</v>
       </c>
       <c r="H403" t="n">
-        <v>1</v>
-      </c>
-      <c r="I403" t="n">
-        <v>2.89</v>
-      </c>
-      <c r="J403" t="n">
-        <v>2.926</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I403" t="inlineStr"/>
+      <c r="J403" t="inlineStr"/>
       <c r="K403" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14004,9 +13864,7 @@
       <c r="I404" t="n">
         <v>2.889</v>
       </c>
-      <c r="J404" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14045,9 +13903,7 @@
       <c r="I405" t="n">
         <v>2.875</v>
       </c>
-      <c r="J405" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14084,9 +13940,7 @@
         <v>0</v>
       </c>
       <c r="I406" t="inlineStr"/>
-      <c r="J406" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J406" t="inlineStr"/>
       <c r="K406" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14123,9 +13977,7 @@
         <v>0</v>
       </c>
       <c r="I407" t="inlineStr"/>
-      <c r="J407" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J407" t="inlineStr"/>
       <c r="K407" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14162,9 +14014,7 @@
         <v>0</v>
       </c>
       <c r="I408" t="inlineStr"/>
-      <c r="J408" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J408" t="inlineStr"/>
       <c r="K408" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14201,9 +14051,7 @@
         <v>0</v>
       </c>
       <c r="I409" t="inlineStr"/>
-      <c r="J409" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J409" t="inlineStr"/>
       <c r="K409" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14240,9 +14088,7 @@
         <v>0</v>
       </c>
       <c r="I410" t="inlineStr"/>
-      <c r="J410" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J410" t="inlineStr"/>
       <c r="K410" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14279,9 +14125,7 @@
         <v>0</v>
       </c>
       <c r="I411" t="inlineStr"/>
-      <c r="J411" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J411" t="inlineStr"/>
       <c r="K411" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14318,9 +14162,7 @@
         <v>0</v>
       </c>
       <c r="I412" t="inlineStr"/>
-      <c r="J412" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J412" t="inlineStr"/>
       <c r="K412" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14357,9 +14199,7 @@
         <v>0</v>
       </c>
       <c r="I413" t="inlineStr"/>
-      <c r="J413" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14396,9 +14236,7 @@
         <v>0</v>
       </c>
       <c r="I414" t="inlineStr"/>
-      <c r="J414" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J414" t="inlineStr"/>
       <c r="K414" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14435,9 +14273,7 @@
         <v>0</v>
       </c>
       <c r="I415" t="inlineStr"/>
-      <c r="J415" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J415" t="inlineStr"/>
       <c r="K415" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14474,9 +14310,7 @@
         <v>0</v>
       </c>
       <c r="I416" t="inlineStr"/>
-      <c r="J416" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J416" t="inlineStr"/>
       <c r="K416" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14513,9 +14347,7 @@
         <v>0</v>
       </c>
       <c r="I417" t="inlineStr"/>
-      <c r="J417" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J417" t="inlineStr"/>
       <c r="K417" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14552,9 +14384,7 @@
         <v>0</v>
       </c>
       <c r="I418" t="inlineStr"/>
-      <c r="J418" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J418" t="inlineStr"/>
       <c r="K418" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14591,9 +14421,7 @@
         <v>0</v>
       </c>
       <c r="I419" t="inlineStr"/>
-      <c r="J419" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J419" t="inlineStr"/>
       <c r="K419" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14630,9 +14458,7 @@
         <v>0</v>
       </c>
       <c r="I420" t="inlineStr"/>
-      <c r="J420" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J420" t="inlineStr"/>
       <c r="K420" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14669,9 +14495,7 @@
         <v>0</v>
       </c>
       <c r="I421" t="inlineStr"/>
-      <c r="J421" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J421" t="inlineStr"/>
       <c r="K421" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14708,9 +14532,7 @@
         <v>0</v>
       </c>
       <c r="I422" t="inlineStr"/>
-      <c r="J422" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J422" t="inlineStr"/>
       <c r="K422" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14747,9 +14569,7 @@
         <v>0</v>
       </c>
       <c r="I423" t="inlineStr"/>
-      <c r="J423" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J423" t="inlineStr"/>
       <c r="K423" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14786,9 +14606,7 @@
         <v>0</v>
       </c>
       <c r="I424" t="inlineStr"/>
-      <c r="J424" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J424" t="inlineStr"/>
       <c r="K424" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14825,9 +14643,7 @@
         <v>0</v>
       </c>
       <c r="I425" t="inlineStr"/>
-      <c r="J425" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14864,9 +14680,7 @@
         <v>0</v>
       </c>
       <c r="I426" t="inlineStr"/>
-      <c r="J426" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14903,9 +14717,7 @@
         <v>0</v>
       </c>
       <c r="I427" t="inlineStr"/>
-      <c r="J427" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14942,9 +14754,7 @@
         <v>0</v>
       </c>
       <c r="I428" t="inlineStr"/>
-      <c r="J428" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -14981,9 +14791,7 @@
         <v>0</v>
       </c>
       <c r="I429" t="inlineStr"/>
-      <c r="J429" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J429" t="inlineStr"/>
       <c r="K429" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15020,9 +14828,7 @@
         <v>0</v>
       </c>
       <c r="I430" t="inlineStr"/>
-      <c r="J430" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J430" t="inlineStr"/>
       <c r="K430" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15059,9 +14865,7 @@
         <v>0</v>
       </c>
       <c r="I431" t="inlineStr"/>
-      <c r="J431" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J431" t="inlineStr"/>
       <c r="K431" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15098,9 +14902,7 @@
         <v>0</v>
       </c>
       <c r="I432" t="inlineStr"/>
-      <c r="J432" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J432" t="inlineStr"/>
       <c r="K432" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15137,9 +14939,7 @@
         <v>0</v>
       </c>
       <c r="I433" t="inlineStr"/>
-      <c r="J433" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J433" t="inlineStr"/>
       <c r="K433" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15176,9 +14976,7 @@
         <v>0</v>
       </c>
       <c r="I434" t="inlineStr"/>
-      <c r="J434" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J434" t="inlineStr"/>
       <c r="K434" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15215,9 +15013,7 @@
         <v>0</v>
       </c>
       <c r="I435" t="inlineStr"/>
-      <c r="J435" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15254,9 +15050,7 @@
         <v>0</v>
       </c>
       <c r="I436" t="inlineStr"/>
-      <c r="J436" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15293,9 +15087,7 @@
         <v>0</v>
       </c>
       <c r="I437" t="inlineStr"/>
-      <c r="J437" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J437" t="inlineStr"/>
       <c r="K437" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15332,9 +15124,7 @@
         <v>0</v>
       </c>
       <c r="I438" t="inlineStr"/>
-      <c r="J438" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15371,9 +15161,7 @@
         <v>0</v>
       </c>
       <c r="I439" t="inlineStr"/>
-      <c r="J439" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J439" t="inlineStr"/>
       <c r="K439" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15410,9 +15198,7 @@
         <v>0</v>
       </c>
       <c r="I440" t="inlineStr"/>
-      <c r="J440" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J440" t="inlineStr"/>
       <c r="K440" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15449,9 +15235,7 @@
         <v>0</v>
       </c>
       <c r="I441" t="inlineStr"/>
-      <c r="J441" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J441" t="inlineStr"/>
       <c r="K441" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15488,9 +15272,7 @@
         <v>0</v>
       </c>
       <c r="I442" t="inlineStr"/>
-      <c r="J442" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J442" t="inlineStr"/>
       <c r="K442" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15527,9 +15309,7 @@
         <v>0</v>
       </c>
       <c r="I443" t="inlineStr"/>
-      <c r="J443" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15566,9 +15346,7 @@
         <v>0</v>
       </c>
       <c r="I444" t="inlineStr"/>
-      <c r="J444" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J444" t="inlineStr"/>
       <c r="K444" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15605,9 +15383,7 @@
         <v>0</v>
       </c>
       <c r="I445" t="inlineStr"/>
-      <c r="J445" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15644,9 +15420,7 @@
         <v>0</v>
       </c>
       <c r="I446" t="inlineStr"/>
-      <c r="J446" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J446" t="inlineStr"/>
       <c r="K446" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15683,9 +15457,7 @@
         <v>0</v>
       </c>
       <c r="I447" t="inlineStr"/>
-      <c r="J447" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15722,9 +15494,7 @@
         <v>0</v>
       </c>
       <c r="I448" t="inlineStr"/>
-      <c r="J448" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15761,9 +15531,7 @@
         <v>0</v>
       </c>
       <c r="I449" t="inlineStr"/>
-      <c r="J449" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15800,9 +15568,7 @@
         <v>0</v>
       </c>
       <c r="I450" t="inlineStr"/>
-      <c r="J450" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15839,9 +15605,7 @@
         <v>0</v>
       </c>
       <c r="I451" t="inlineStr"/>
-      <c r="J451" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15878,9 +15642,7 @@
         <v>0</v>
       </c>
       <c r="I452" t="inlineStr"/>
-      <c r="J452" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
           <t>매도 대기</t>
@@ -15914,20 +15676,16 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H453" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I453" t="inlineStr"/>
-      <c r="J453" t="n">
-        <v>2.926</v>
-      </c>
+      <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
-          <t>매도 대기</t>
+          <t>매도 체결</t>
         </is>
       </c>
-      <c r="L453" t="n">
-        <v>1</v>
-      </c>
+      <c r="L453" t="inlineStr"/>
       <c r="M453" t="inlineStr"/>
     </row>
     <row r="454">
@@ -15953,17 +15711,11 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H454" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I454" t="inlineStr"/>
-      <c r="J454" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K454" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J454" t="inlineStr"/>
+      <c r="K454" t="inlineStr"/>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15995,14 +15747,8 @@
         <v>0</v>
       </c>
       <c r="I455" t="inlineStr"/>
-      <c r="J455" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K455" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J455" t="inlineStr"/>
+      <c r="K455" t="inlineStr"/>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -16034,14 +15780,8 @@
         <v>0</v>
       </c>
       <c r="I456" t="inlineStr"/>
-      <c r="J456" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K456" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J456" t="inlineStr"/>
+      <c r="K456" t="inlineStr"/>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -16070,17 +15810,11 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H457" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I457" t="inlineStr"/>
-      <c r="J457" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K457" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J457" t="inlineStr"/>
+      <c r="K457" t="inlineStr"/>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -16109,17 +15843,11 @@
         <v>-20120444.35594197</v>
       </c>
       <c r="H458" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I458" t="inlineStr"/>
-      <c r="J458" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K458" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J458" t="inlineStr"/>
+      <c r="K458" t="inlineStr"/>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -16151,14 +15879,8 @@
         <v>0</v>
       </c>
       <c r="I459" t="inlineStr"/>
-      <c r="J459" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K459" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J459" t="inlineStr"/>
+      <c r="K459" t="inlineStr"/>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -16187,17 +15909,11 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H460" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I460" t="inlineStr"/>
-      <c r="J460" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K460" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J460" t="inlineStr"/>
+      <c r="K460" t="inlineStr"/>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -16226,17 +15942,11 @@
         <v>-20124047.42264197</v>
       </c>
       <c r="H461" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I461" t="inlineStr"/>
-      <c r="J461" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K461" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J461" t="inlineStr"/>
+      <c r="K461" t="inlineStr"/>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -16268,14 +15978,8 @@
         <v>0</v>
       </c>
       <c r="I462" t="inlineStr"/>
-      <c r="J462" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K462" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J462" t="inlineStr"/>
+      <c r="K462" t="inlineStr"/>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16307,14 +16011,8 @@
         <v>0</v>
       </c>
       <c r="I463" t="inlineStr"/>
-      <c r="J463" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K463" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J463" t="inlineStr"/>
+      <c r="K463" t="inlineStr"/>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16346,14 +16044,8 @@
         <v>0</v>
       </c>
       <c r="I464" t="inlineStr"/>
-      <c r="J464" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K464" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J464" t="inlineStr"/>
+      <c r="K464" t="inlineStr"/>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16382,19 +16074,11 @@
         <v>-20142147.20064197</v>
       </c>
       <c r="H465" t="n">
-        <v>1</v>
-      </c>
-      <c r="I465" t="n">
-        <v>2.9</v>
-      </c>
-      <c r="J465" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K465" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I465" t="inlineStr"/>
+      <c r="J465" t="inlineStr"/>
+      <c r="K465" t="inlineStr"/>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16423,19 +16107,11 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H466" t="n">
-        <v>1</v>
-      </c>
-      <c r="I466" t="n">
-        <v>2.911</v>
-      </c>
-      <c r="J466" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K466" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I466" t="inlineStr"/>
+      <c r="J466" t="inlineStr"/>
+      <c r="K466" t="inlineStr"/>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16467,14 +16143,8 @@
         <v>0</v>
       </c>
       <c r="I467" t="inlineStr"/>
-      <c r="J467" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K467" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J467" t="inlineStr"/>
+      <c r="K467" t="inlineStr"/>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16506,14 +16176,8 @@
         <v>0</v>
       </c>
       <c r="I468" t="inlineStr"/>
-      <c r="J468" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K468" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J468" t="inlineStr"/>
+      <c r="K468" t="inlineStr"/>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16545,14 +16209,8 @@
         <v>0</v>
       </c>
       <c r="I469" t="inlineStr"/>
-      <c r="J469" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K469" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J469" t="inlineStr"/>
+      <c r="K469" t="inlineStr"/>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16584,14 +16242,8 @@
         <v>0</v>
       </c>
       <c r="I470" t="inlineStr"/>
-      <c r="J470" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K470" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J470" t="inlineStr"/>
+      <c r="K470" t="inlineStr"/>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16623,14 +16275,8 @@
         <v>0</v>
       </c>
       <c r="I471" t="inlineStr"/>
-      <c r="J471" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K471" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J471" t="inlineStr"/>
+      <c r="K471" t="inlineStr"/>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16662,14 +16308,8 @@
         <v>0</v>
       </c>
       <c r="I472" t="inlineStr"/>
-      <c r="J472" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K472" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J472" t="inlineStr"/>
+      <c r="K472" t="inlineStr"/>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16701,14 +16341,8 @@
         <v>0</v>
       </c>
       <c r="I473" t="inlineStr"/>
-      <c r="J473" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K473" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+      <c r="J473" t="inlineStr"/>
+      <c r="K473" t="inlineStr"/>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16737,19 +16371,11 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H474" t="n">
-        <v>1</v>
-      </c>
-      <c r="I474" t="n">
-        <v>2.909</v>
-      </c>
-      <c r="J474" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K474" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I474" t="inlineStr"/>
+      <c r="J474" t="inlineStr"/>
+      <c r="K474" t="inlineStr"/>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16778,19 +16404,11 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H475" t="n">
-        <v>1</v>
-      </c>
-      <c r="I475" t="n">
-        <v>2.909</v>
-      </c>
-      <c r="J475" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K475" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I475" t="inlineStr"/>
+      <c r="J475" t="inlineStr"/>
+      <c r="K475" t="inlineStr"/>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16819,19 +16437,11 @@
         <v>-19387751.92944197</v>
       </c>
       <c r="H476" t="n">
-        <v>1</v>
-      </c>
-      <c r="I476" t="n">
-        <v>2.909</v>
-      </c>
-      <c r="J476" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K476" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I476" t="inlineStr"/>
+      <c r="J476" t="inlineStr"/>
+      <c r="K476" t="inlineStr"/>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16860,25 +16470,17 @@
         <v>-19271502.50834197</v>
       </c>
       <c r="H477" t="n">
-        <v>1</v>
-      </c>
-      <c r="I477" t="n">
-        <v>2.905</v>
-      </c>
-      <c r="J477" t="n">
-        <v>2.926</v>
-      </c>
-      <c r="K477" t="inlineStr">
-        <is>
-          <t>매도 대기</t>
-        </is>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I477" t="inlineStr"/>
+      <c r="J477" t="inlineStr"/>
+      <c r="K477" t="inlineStr"/>
       <c r="L477" t="n">
         <v>1</v>
       </c>
       <c r="M477" t="inlineStr"/>
     </row>
   </sheetData>
-  <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/BackTest/2020-01-13 BackTest FNB.xlsx
+++ b/BackTest/2020-01-13 BackTest FNB.xlsx
@@ -451,7 +451,7 @@
         <v>457442.8380773334</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I2" t="inlineStr"/>
       <c r="J2" t="inlineStr"/>
@@ -484,7 +484,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H3" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I3" t="inlineStr"/>
       <c r="J3" t="inlineStr"/>
@@ -517,7 +517,7 @@
         <v>486014.4812773334</v>
       </c>
       <c r="H4" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I4" t="inlineStr"/>
       <c r="J4" t="inlineStr"/>
@@ -550,7 +550,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H5" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I5" t="inlineStr"/>
       <c r="J5" t="inlineStr"/>
@@ -583,7 +583,7 @@
         <v>484337.9518773334</v>
       </c>
       <c r="H6" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I6" t="inlineStr"/>
       <c r="J6" t="inlineStr"/>
@@ -616,7 +616,7 @@
         <v>485069.9518773334</v>
       </c>
       <c r="H7" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I7" t="inlineStr"/>
       <c r="J7" t="inlineStr"/>
@@ -649,7 +649,7 @@
         <v>485246.9518773334</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I8" t="inlineStr"/>
       <c r="J8" t="inlineStr"/>
@@ -682,7 +682,7 @@
         <v>484046.9518773334</v>
       </c>
       <c r="H9" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I9" t="inlineStr"/>
       <c r="J9" t="inlineStr"/>
@@ -715,7 +715,7 @@
         <v>483602.9518773334</v>
       </c>
       <c r="H10" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I10" t="inlineStr"/>
       <c r="J10" t="inlineStr"/>
@@ -814,7 +814,7 @@
         <v>-4139219.196822667</v>
       </c>
       <c r="H13" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I13" t="inlineStr"/>
       <c r="J13" t="inlineStr"/>
@@ -847,7 +847,7 @@
         <v>-5575620.281722667</v>
       </c>
       <c r="H14" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I14" t="inlineStr"/>
       <c r="J14" t="inlineStr"/>
@@ -1309,7 +1309,7 @@
         <v>-5269996.881322667</v>
       </c>
       <c r="H28" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I28" t="inlineStr"/>
       <c r="J28" t="inlineStr"/>
@@ -1375,7 +1375,7 @@
         <v>-5304718.654822667</v>
       </c>
       <c r="H30" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I30" t="inlineStr"/>
       <c r="J30" t="inlineStr"/>
@@ -1969,7 +1969,7 @@
         <v>-3418502.917122667</v>
       </c>
       <c r="H48" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I48" t="inlineStr"/>
       <c r="J48" t="inlineStr"/>
@@ -2068,7 +2068,7 @@
         <v>-3170345.839022667</v>
       </c>
       <c r="H51" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I51" t="inlineStr"/>
       <c r="J51" t="inlineStr"/>
@@ -2101,7 +2101,7 @@
         <v>-3187845.839022667</v>
       </c>
       <c r="H52" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I52" t="inlineStr"/>
       <c r="J52" t="inlineStr"/>
@@ -2167,7 +2167,7 @@
         <v>-2870784.049222667</v>
       </c>
       <c r="H54" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I54" t="inlineStr"/>
       <c r="J54" t="inlineStr"/>
@@ -2200,7 +2200,7 @@
         <v>-3126447.600522667</v>
       </c>
       <c r="H55" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I55" t="inlineStr"/>
       <c r="J55" t="inlineStr"/>
@@ -2233,7 +2233,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H56" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I56" t="inlineStr"/>
       <c r="J56" t="inlineStr"/>
@@ -2266,7 +2266,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I57" t="inlineStr"/>
       <c r="J57" t="inlineStr"/>
@@ -2299,7 +2299,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H58" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I58" t="inlineStr"/>
       <c r="J58" t="inlineStr"/>
@@ -2332,7 +2332,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H59" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I59" t="inlineStr"/>
       <c r="J59" t="inlineStr"/>
@@ -2365,7 +2365,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H60" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I60" t="inlineStr"/>
       <c r="J60" t="inlineStr"/>
@@ -2398,7 +2398,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H61" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I61" t="inlineStr"/>
       <c r="J61" t="inlineStr"/>
@@ -2431,7 +2431,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H62" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I62" t="inlineStr"/>
       <c r="J62" t="inlineStr"/>
@@ -2464,7 +2464,7 @@
         <v>-3099119.922822667</v>
       </c>
       <c r="H63" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I63" t="inlineStr"/>
       <c r="J63" t="inlineStr"/>
@@ -2497,7 +2497,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H64" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I64" t="inlineStr"/>
       <c r="J64" t="inlineStr"/>
@@ -2530,7 +2530,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H65" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I65" t="inlineStr"/>
       <c r="J65" t="inlineStr"/>
@@ -2563,7 +2563,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H66" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I66" t="inlineStr"/>
       <c r="J66" t="inlineStr"/>
@@ -2596,7 +2596,7 @@
         <v>-3118682.922822667</v>
       </c>
       <c r="H67" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I67" t="inlineStr"/>
       <c r="J67" t="inlineStr"/>
@@ -2629,7 +2629,7 @@
         <v>-3636663.725122667</v>
       </c>
       <c r="H68" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I68" t="inlineStr"/>
       <c r="J68" t="inlineStr"/>
@@ -2662,7 +2662,7 @@
         <v>-3775924.725122667</v>
       </c>
       <c r="H69" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I69" t="inlineStr"/>
       <c r="J69" t="inlineStr"/>
@@ -2695,7 +2695,7 @@
         <v>-3691484.725122667</v>
       </c>
       <c r="H70" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I70" t="inlineStr"/>
       <c r="J70" t="inlineStr"/>
@@ -2728,7 +2728,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H71" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I71" t="inlineStr"/>
       <c r="J71" t="inlineStr"/>
@@ -2761,7 +2761,7 @@
         <v>-3811485.191222667</v>
       </c>
       <c r="H72" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I72" t="inlineStr"/>
       <c r="J72" t="inlineStr"/>
@@ -2860,7 +2860,7 @@
         <v>-3763948.265922667</v>
       </c>
       <c r="H75" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I75" t="inlineStr"/>
       <c r="J75" t="inlineStr"/>
@@ -2893,7 +2893,7 @@
         <v>-3787822.582922666</v>
       </c>
       <c r="H76" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I76" t="inlineStr"/>
       <c r="J76" t="inlineStr"/>
@@ -2926,7 +2926,7 @@
         <v>-3203488.829822666</v>
       </c>
       <c r="H77" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I77" t="inlineStr"/>
       <c r="J77" t="inlineStr"/>
@@ -2959,7 +2959,7 @@
         <v>-3200580.105022667</v>
       </c>
       <c r="H78" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I78" t="inlineStr"/>
       <c r="J78" t="inlineStr"/>
@@ -2992,7 +2992,7 @@
         <v>-3200802.105022667</v>
       </c>
       <c r="H79" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I79" t="inlineStr"/>
       <c r="J79" t="inlineStr"/>
@@ -3025,7 +3025,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H80" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I80" t="inlineStr"/>
       <c r="J80" t="inlineStr"/>
@@ -3058,7 +3058,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H81" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I81" t="inlineStr"/>
       <c r="J81" t="inlineStr"/>
@@ -3091,7 +3091,7 @@
         <v>-3203024.105022667</v>
       </c>
       <c r="H82" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I82" t="inlineStr"/>
       <c r="J82" t="inlineStr"/>
@@ -3124,7 +3124,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H83" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I83" t="inlineStr"/>
       <c r="J83" t="inlineStr"/>
@@ -3157,7 +3157,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H84" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I84" t="inlineStr"/>
       <c r="J84" t="inlineStr"/>
@@ -3190,7 +3190,7 @@
         <v>-3202359.498622667</v>
       </c>
       <c r="H85" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I85" t="inlineStr"/>
       <c r="J85" t="inlineStr"/>
@@ -3223,7 +3223,7 @@
         <v>-3202536.498622667</v>
       </c>
       <c r="H86" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I86" t="inlineStr"/>
       <c r="J86" t="inlineStr"/>
@@ -3256,7 +3256,7 @@
         <v>-3202758.498622667</v>
       </c>
       <c r="H87" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I87" t="inlineStr"/>
       <c r="J87" t="inlineStr"/>
@@ -3289,7 +3289,7 @@
         <v>-3161320.278022666</v>
       </c>
       <c r="H88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I88" t="inlineStr"/>
       <c r="J88" t="inlineStr"/>
@@ -3322,7 +3322,7 @@
         <v>-3181545.076322666</v>
       </c>
       <c r="H89" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I89" t="inlineStr"/>
       <c r="J89" t="inlineStr"/>
@@ -3355,7 +3355,7 @@
         <v>-3207209.839422666</v>
       </c>
       <c r="H90" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I90" t="inlineStr"/>
       <c r="J90" t="inlineStr"/>
@@ -3388,7 +3388,7 @@
         <v>-3206765.839422666</v>
       </c>
       <c r="H91" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I91" t="inlineStr"/>
       <c r="J91" t="inlineStr"/>
@@ -3421,7 +3421,7 @@
         <v>-3208987.839422666</v>
       </c>
       <c r="H92" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I92" t="inlineStr"/>
       <c r="J92" t="inlineStr"/>
@@ -3454,7 +3454,7 @@
         <v>-3208765.839422666</v>
       </c>
       <c r="H93" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I93" t="inlineStr"/>
       <c r="J93" t="inlineStr"/>
@@ -3487,7 +3487,7 @@
         <v>-3209209.839422666</v>
       </c>
       <c r="H94" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I94" t="inlineStr"/>
       <c r="J94" t="inlineStr"/>
@@ -3685,7 +3685,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H100" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I100" t="inlineStr"/>
       <c r="J100" t="inlineStr"/>
@@ -3718,7 +3718,7 @@
         <v>-3203354.845322667</v>
       </c>
       <c r="H101" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I101" t="inlineStr"/>
       <c r="J101" t="inlineStr"/>
@@ -3751,7 +3751,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H102" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I102" t="inlineStr"/>
       <c r="J102" t="inlineStr"/>
@@ -3784,7 +3784,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H103" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I103" t="inlineStr"/>
       <c r="J103" t="inlineStr"/>
@@ -3817,7 +3817,7 @@
         <v>-3200464.845322667</v>
       </c>
       <c r="H104" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I104" t="inlineStr"/>
       <c r="J104" t="inlineStr"/>
@@ -3850,7 +3850,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H105" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I105" t="inlineStr"/>
       <c r="J105" t="inlineStr"/>
@@ -3883,7 +3883,7 @@
         <v>-3147717.014322667</v>
       </c>
       <c r="H106" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I106" t="inlineStr"/>
       <c r="J106" t="inlineStr"/>
@@ -3916,7 +3916,7 @@
         <v>-3218782.011122667</v>
       </c>
       <c r="H107" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I107" t="inlineStr"/>
       <c r="J107" t="inlineStr"/>
@@ -3949,7 +3949,7 @@
         <v>-4019521.375022667</v>
       </c>
       <c r="H108" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I108" t="inlineStr"/>
       <c r="J108" t="inlineStr"/>
@@ -4048,7 +4048,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H111" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I111" t="inlineStr"/>
       <c r="J111" t="inlineStr"/>
@@ -4081,7 +4081,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H112" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I112" t="inlineStr"/>
       <c r="J112" t="inlineStr"/>
@@ -4114,7 +4114,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H113" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I113" t="inlineStr"/>
       <c r="J113" t="inlineStr"/>
@@ -4147,7 +4147,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H114" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I114" t="inlineStr"/>
       <c r="J114" t="inlineStr"/>
@@ -4180,7 +4180,7 @@
         <v>-3830899.997322666</v>
       </c>
       <c r="H115" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I115" t="inlineStr"/>
       <c r="J115" t="inlineStr"/>
@@ -4213,7 +4213,7 @@
         <v>-3834866.997322666</v>
       </c>
       <c r="H116" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I116" t="inlineStr"/>
       <c r="J116" t="inlineStr"/>
@@ -4246,7 +4246,7 @@
         <v>-3834866.997322666</v>
       </c>
       <c r="H117" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I117" t="inlineStr"/>
       <c r="J117" t="inlineStr"/>
@@ -4477,7 +4477,7 @@
         <v>-4350662.033522666</v>
       </c>
       <c r="H124" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I124" t="inlineStr"/>
       <c r="J124" t="inlineStr"/>
@@ -4510,7 +4510,7 @@
         <v>-4351862.033522666</v>
       </c>
       <c r="H125" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I125" t="inlineStr"/>
       <c r="J125" t="inlineStr"/>
@@ -5929,7 +5929,7 @@
         <v>-4276729.734822668</v>
       </c>
       <c r="H168" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I168" t="inlineStr"/>
       <c r="J168" t="inlineStr"/>
@@ -5962,7 +5962,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H169" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I169" t="inlineStr"/>
       <c r="J169" t="inlineStr"/>
@@ -5995,7 +5995,7 @@
         <v>-3981905.329522668</v>
       </c>
       <c r="H170" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I170" t="inlineStr"/>
       <c r="J170" t="inlineStr"/>
@@ -6028,7 +6028,7 @@
         <v>-3984272.329522668</v>
       </c>
       <c r="H171" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I171" t="inlineStr"/>
       <c r="J171" t="inlineStr"/>
@@ -6061,7 +6061,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H172" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I172" t="inlineStr"/>
       <c r="J172" t="inlineStr"/>
@@ -6094,7 +6094,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H173" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I173" t="inlineStr"/>
       <c r="J173" t="inlineStr"/>
@@ -6127,7 +6127,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H174" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I174" t="inlineStr"/>
       <c r="J174" t="inlineStr"/>
@@ -6160,7 +6160,7 @@
         <v>-3982036.329522668</v>
       </c>
       <c r="H175" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I175" t="inlineStr"/>
       <c r="J175" t="inlineStr"/>
@@ -6193,7 +6193,7 @@
         <v>-3982516.329522668</v>
       </c>
       <c r="H176" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I176" t="inlineStr"/>
       <c r="J176" t="inlineStr"/>
@@ -6226,7 +6226,7 @@
         <v>-3982166.329522668</v>
       </c>
       <c r="H177" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I177" t="inlineStr"/>
       <c r="J177" t="inlineStr"/>
@@ -6259,7 +6259,7 @@
         <v>-3983454.329522668</v>
       </c>
       <c r="H178" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I178" t="inlineStr"/>
       <c r="J178" t="inlineStr"/>
@@ -6292,7 +6292,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H179" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I179" t="inlineStr"/>
       <c r="J179" t="inlineStr"/>
@@ -6325,7 +6325,7 @@
         <v>-3990376.329522668</v>
       </c>
       <c r="H180" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I180" t="inlineStr"/>
       <c r="J180" t="inlineStr"/>
@@ -6358,7 +6358,7 @@
         <v>-4050027.814122668</v>
       </c>
       <c r="H181" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I181" t="inlineStr"/>
       <c r="J181" t="inlineStr"/>
@@ -6391,7 +6391,7 @@
         <v>-4023287.096122669</v>
       </c>
       <c r="H182" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I182" t="inlineStr"/>
       <c r="J182" t="inlineStr"/>
@@ -6424,7 +6424,7 @@
         <v>-4092067.976522669</v>
       </c>
       <c r="H183" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I183" t="inlineStr"/>
       <c r="J183" t="inlineStr"/>
@@ -6655,7 +6655,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H190" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I190" t="inlineStr"/>
       <c r="J190" t="inlineStr"/>
@@ -6688,7 +6688,7 @@
         <v>-4222456.637322669</v>
       </c>
       <c r="H191" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I191" t="inlineStr"/>
       <c r="J191" t="inlineStr"/>
@@ -6721,7 +6721,7 @@
         <v>-5240320.202822668</v>
       </c>
       <c r="H192" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I192" t="inlineStr"/>
       <c r="J192" t="inlineStr"/>
@@ -6754,7 +6754,7 @@
         <v>-5239619.202822668</v>
       </c>
       <c r="H193" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I193" t="inlineStr"/>
       <c r="J193" t="inlineStr"/>
@@ -6820,7 +6820,7 @@
         <v>-5235973.861722669</v>
       </c>
       <c r="H195" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I195" t="inlineStr"/>
       <c r="J195" t="inlineStr"/>
@@ -6853,7 +6853,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H196" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I196" t="inlineStr"/>
       <c r="J196" t="inlineStr"/>
@@ -6886,7 +6886,7 @@
         <v>-5236861.861722669</v>
       </c>
       <c r="H197" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I197" t="inlineStr"/>
       <c r="J197" t="inlineStr"/>
@@ -6919,7 +6919,7 @@
         <v>-5236639.861722669</v>
       </c>
       <c r="H198" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I198" t="inlineStr"/>
       <c r="J198" t="inlineStr"/>
@@ -6952,7 +6952,7 @@
         <v>-5239739.861722669</v>
       </c>
       <c r="H199" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I199" t="inlineStr"/>
       <c r="J199" t="inlineStr"/>
@@ -6985,7 +6985,7 @@
         <v>-5395446.323122669</v>
       </c>
       <c r="H200" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I200" t="inlineStr"/>
       <c r="J200" t="inlineStr"/>
@@ -7018,7 +7018,7 @@
         <v>-5395276.323122669</v>
       </c>
       <c r="H201" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I201" t="inlineStr"/>
       <c r="J201" t="inlineStr"/>
@@ -7084,7 +7084,7 @@
         <v>-9054884.723622669</v>
       </c>
       <c r="H203" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="I203" t="inlineStr"/>
       <c r="J203" t="inlineStr"/>
@@ -11935,7 +11935,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H350" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I350" t="inlineStr"/>
       <c r="J350" t="inlineStr"/>
@@ -11968,7 +11968,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H351" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I351" t="inlineStr"/>
       <c r="J351" t="inlineStr"/>
@@ -12001,7 +12001,7 @@
         <v>-18544487.05543087</v>
       </c>
       <c r="H352" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I352" t="inlineStr"/>
       <c r="J352" t="inlineStr"/>
@@ -12034,7 +12034,7 @@
         <v>-18544310.05543087</v>
       </c>
       <c r="H353" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I353" t="inlineStr"/>
       <c r="J353" t="inlineStr"/>
@@ -12067,7 +12067,7 @@
         <v>-18544560.05543087</v>
       </c>
       <c r="H354" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I354" t="inlineStr"/>
       <c r="J354" t="inlineStr"/>
@@ -12100,7 +12100,7 @@
         <v>-18545004.05543087</v>
       </c>
       <c r="H355" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I355" t="inlineStr"/>
       <c r="J355" t="inlineStr"/>
@@ -12133,7 +12133,7 @@
         <v>-18546615.38403087</v>
       </c>
       <c r="H356" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I356" t="inlineStr"/>
       <c r="J356" t="inlineStr"/>
@@ -12166,7 +12166,7 @@
         <v>-18582449.14813087</v>
       </c>
       <c r="H357" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I357" t="inlineStr"/>
       <c r="J357" t="inlineStr"/>
@@ -12199,11 +12199,17 @@
         <v>-18604098.53013087</v>
       </c>
       <c r="H358" t="n">
-        <v>0</v>
-      </c>
-      <c r="I358" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I358" t="n">
+        <v>2.913</v>
+      </c>
       <c r="J358" t="inlineStr"/>
-      <c r="K358" t="inlineStr"/>
+      <c r="K358" t="inlineStr">
+        <is>
+          <t>매수 체결</t>
+        </is>
+      </c>
       <c r="L358" t="n">
         <v>1</v>
       </c>
@@ -12232,11 +12238,17 @@
         <v>-18603926.53013087</v>
       </c>
       <c r="H359" t="n">
-        <v>0</v>
-      </c>
-      <c r="I359" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I359" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J359" t="inlineStr"/>
-      <c r="K359" t="inlineStr"/>
+      <c r="K359" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L359" t="n">
         <v>1</v>
       </c>
@@ -12265,11 +12277,17 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H360" t="n">
-        <v>0</v>
-      </c>
-      <c r="I360" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I360" t="n">
+        <v>2.912</v>
+      </c>
       <c r="J360" t="inlineStr"/>
-      <c r="K360" t="inlineStr"/>
+      <c r="K360" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L360" t="n">
         <v>1</v>
       </c>
@@ -12298,11 +12316,17 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H361" t="n">
-        <v>0</v>
-      </c>
-      <c r="I361" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I361" t="n">
+        <v>2.926</v>
+      </c>
       <c r="J361" t="inlineStr"/>
-      <c r="K361" t="inlineStr"/>
+      <c r="K361" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L361" t="n">
         <v>1</v>
       </c>
@@ -12335,7 +12359,11 @@
       </c>
       <c r="I362" t="inlineStr"/>
       <c r="J362" t="inlineStr"/>
-      <c r="K362" t="inlineStr"/>
+      <c r="K362" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L362" t="n">
         <v>1</v>
       </c>
@@ -12364,11 +12392,17 @@
         <v>-18603572.53013087</v>
       </c>
       <c r="H363" t="n">
-        <v>2</v>
-      </c>
-      <c r="I363" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I363" t="n">
+        <v>2.926</v>
+      </c>
       <c r="J363" t="inlineStr"/>
-      <c r="K363" t="inlineStr"/>
+      <c r="K363" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L363" t="n">
         <v>1</v>
       </c>
@@ -12397,11 +12431,15 @@
         <v>-18603749.53013087</v>
       </c>
       <c r="H364" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I364" t="inlineStr"/>
       <c r="J364" t="inlineStr"/>
-      <c r="K364" t="inlineStr"/>
+      <c r="K364" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L364" t="n">
         <v>1</v>
       </c>
@@ -12430,11 +12468,15 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H365" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I365" t="inlineStr"/>
       <c r="J365" t="inlineStr"/>
-      <c r="K365" t="inlineStr"/>
+      <c r="K365" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L365" t="n">
         <v>1</v>
       </c>
@@ -12463,11 +12505,15 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H366" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I366" t="inlineStr"/>
       <c r="J366" t="inlineStr"/>
-      <c r="K366" t="inlineStr"/>
+      <c r="K366" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L366" t="n">
         <v>1</v>
       </c>
@@ -12496,11 +12542,15 @@
         <v>-18625315.57713087</v>
       </c>
       <c r="H367" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I367" t="inlineStr"/>
       <c r="J367" t="inlineStr"/>
-      <c r="K367" t="inlineStr"/>
+      <c r="K367" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L367" t="n">
         <v>1</v>
       </c>
@@ -12529,11 +12579,15 @@
         <v>-18725315.57713087</v>
       </c>
       <c r="H368" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I368" t="inlineStr"/>
       <c r="J368" t="inlineStr"/>
-      <c r="K368" t="inlineStr"/>
+      <c r="K368" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L368" t="n">
         <v>1</v>
       </c>
@@ -12562,11 +12616,15 @@
         <v>-18775492.57713087</v>
       </c>
       <c r="H369" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I369" t="inlineStr"/>
       <c r="J369" t="inlineStr"/>
-      <c r="K369" t="inlineStr"/>
+      <c r="K369" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L369" t="n">
         <v>1</v>
       </c>
@@ -12595,11 +12653,15 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H370" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I370" t="inlineStr"/>
       <c r="J370" t="inlineStr"/>
-      <c r="K370" t="inlineStr"/>
+      <c r="K370" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L370" t="n">
         <v>1</v>
       </c>
@@ -12628,11 +12690,17 @@
         <v>-18781669.57713087</v>
       </c>
       <c r="H371" t="n">
-        <v>2</v>
-      </c>
-      <c r="I371" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I371" t="n">
+        <v>2.891</v>
+      </c>
       <c r="J371" t="inlineStr"/>
-      <c r="K371" t="inlineStr"/>
+      <c r="K371" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L371" t="n">
         <v>1</v>
       </c>
@@ -12665,7 +12733,11 @@
       </c>
       <c r="I372" t="inlineStr"/>
       <c r="J372" t="inlineStr"/>
-      <c r="K372" t="inlineStr"/>
+      <c r="K372" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L372" t="n">
         <v>1</v>
       </c>
@@ -12694,15 +12766,13 @@
         <v>-19970608.41893087</v>
       </c>
       <c r="H373" t="n">
-        <v>1</v>
-      </c>
-      <c r="I373" t="n">
-        <v>2.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I373" t="inlineStr"/>
       <c r="J373" t="inlineStr"/>
       <c r="K373" t="inlineStr">
         <is>
-          <t>매수 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
       <c r="L373" t="n">
@@ -12772,9 +12842,11 @@
         <v>-20313327.70383087</v>
       </c>
       <c r="H375" t="n">
-        <v>0</v>
-      </c>
-      <c r="I375" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I375" t="n">
+        <v>2.872</v>
+      </c>
       <c r="J375" t="inlineStr"/>
       <c r="K375" t="inlineStr">
         <is>
@@ -12809,9 +12881,11 @@
         <v>-20243985.63643087</v>
       </c>
       <c r="H376" t="n">
-        <v>0</v>
-      </c>
-      <c r="I376" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I376" t="n">
+        <v>2.863</v>
+      </c>
       <c r="J376" t="inlineStr"/>
       <c r="K376" t="inlineStr">
         <is>
@@ -12998,9 +13072,11 @@
         <v>-19948313.20503087</v>
       </c>
       <c r="H381" t="n">
-        <v>0</v>
-      </c>
-      <c r="I381" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I381" t="n">
+        <v>2.862</v>
+      </c>
       <c r="J381" t="inlineStr"/>
       <c r="K381" t="inlineStr">
         <is>
@@ -13035,11 +13111,9 @@
         <v>-19648313.20503087</v>
       </c>
       <c r="H382" t="n">
-        <v>1</v>
-      </c>
-      <c r="I382" t="n">
-        <v>2.863</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I382" t="inlineStr"/>
       <c r="J382" t="inlineStr"/>
       <c r="K382" t="inlineStr">
         <is>
@@ -13074,9 +13148,11 @@
         <v>-19647815.53023086</v>
       </c>
       <c r="H383" t="n">
-        <v>0</v>
-      </c>
-      <c r="I383" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I383" t="n">
+        <v>2.865</v>
+      </c>
       <c r="J383" t="inlineStr"/>
       <c r="K383" t="inlineStr">
         <is>
@@ -13111,11 +13187,9 @@
         <v>-19747815.53023086</v>
       </c>
       <c r="H384" t="n">
-        <v>1</v>
-      </c>
-      <c r="I384" t="n">
-        <v>2.89</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I384" t="inlineStr"/>
       <c r="J384" t="inlineStr"/>
       <c r="K384" t="inlineStr">
         <is>
@@ -13561,11 +13635,9 @@
         <v>-19040729.42103086</v>
       </c>
       <c r="H396" t="n">
-        <v>1</v>
-      </c>
-      <c r="I396" t="n">
-        <v>2.876</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I396" t="inlineStr"/>
       <c r="J396" t="inlineStr"/>
       <c r="K396" t="inlineStr">
         <is>
@@ -13859,11 +13931,9 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H404" t="n">
-        <v>1</v>
-      </c>
-      <c r="I404" t="n">
-        <v>2.889</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I404" t="inlineStr"/>
       <c r="J404" t="inlineStr"/>
       <c r="K404" t="inlineStr">
         <is>
@@ -13898,11 +13968,9 @@
         <v>-19156378.58423086</v>
       </c>
       <c r="H405" t="n">
-        <v>1</v>
-      </c>
-      <c r="I405" t="n">
-        <v>2.875</v>
-      </c>
+        <v>0</v>
+      </c>
+      <c r="I405" t="inlineStr"/>
       <c r="J405" t="inlineStr"/>
       <c r="K405" t="inlineStr">
         <is>
@@ -14196,9 +14264,11 @@
         <v>-19506309.59214197</v>
       </c>
       <c r="H413" t="n">
-        <v>0</v>
-      </c>
-      <c r="I413" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I413" t="n">
+        <v>2.871</v>
+      </c>
       <c r="J413" t="inlineStr"/>
       <c r="K413" t="inlineStr">
         <is>
@@ -14640,9 +14710,11 @@
         <v>-19485173.65064197</v>
       </c>
       <c r="H425" t="n">
-        <v>0</v>
-      </c>
-      <c r="I425" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I425" t="n">
+        <v>2.89</v>
+      </c>
       <c r="J425" t="inlineStr"/>
       <c r="K425" t="inlineStr">
         <is>
@@ -14677,9 +14749,11 @@
         <v>-19483885.65064197</v>
       </c>
       <c r="H426" t="n">
-        <v>0</v>
-      </c>
-      <c r="I426" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I426" t="n">
+        <v>2.885</v>
+      </c>
       <c r="J426" t="inlineStr"/>
       <c r="K426" t="inlineStr">
         <is>
@@ -14714,9 +14788,11 @@
         <v>-19696799.69664197</v>
       </c>
       <c r="H427" t="n">
-        <v>0</v>
-      </c>
-      <c r="I427" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I427" t="n">
+        <v>2.906</v>
+      </c>
       <c r="J427" t="inlineStr"/>
       <c r="K427" t="inlineStr">
         <is>
@@ -14751,9 +14827,11 @@
         <v>-19414346.73734197</v>
       </c>
       <c r="H428" t="n">
-        <v>0</v>
-      </c>
-      <c r="I428" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I428" t="n">
+        <v>2.885</v>
+      </c>
       <c r="J428" t="inlineStr"/>
       <c r="K428" t="inlineStr">
         <is>
@@ -15010,9 +15088,11 @@
         <v>-19546940.84374197</v>
       </c>
       <c r="H435" t="n">
-        <v>0</v>
-      </c>
-      <c r="I435" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I435" t="n">
+        <v>2.886</v>
+      </c>
       <c r="J435" t="inlineStr"/>
       <c r="K435" t="inlineStr">
         <is>
@@ -15047,9 +15127,11 @@
         <v>-19893433.90354197</v>
       </c>
       <c r="H436" t="n">
-        <v>0</v>
-      </c>
-      <c r="I436" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I436" t="n">
+        <v>2.887</v>
+      </c>
       <c r="J436" t="inlineStr"/>
       <c r="K436" t="inlineStr">
         <is>
@@ -15121,9 +15203,11 @@
         <v>-19872338.90564197</v>
       </c>
       <c r="H438" t="n">
-        <v>0</v>
-      </c>
-      <c r="I438" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I438" t="n">
+        <v>2.888</v>
+      </c>
       <c r="J438" t="inlineStr"/>
       <c r="K438" t="inlineStr">
         <is>
@@ -15306,9 +15390,11 @@
         <v>-20218300.96554197</v>
       </c>
       <c r="H443" t="n">
-        <v>0</v>
-      </c>
-      <c r="I443" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I443" t="n">
+        <v>2.897</v>
+      </c>
       <c r="J443" t="inlineStr"/>
       <c r="K443" t="inlineStr">
         <is>
@@ -15380,9 +15466,11 @@
         <v>-20255278.37794197</v>
       </c>
       <c r="H445" t="n">
-        <v>0</v>
-      </c>
-      <c r="I445" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I445" t="n">
+        <v>2.884</v>
+      </c>
       <c r="J445" t="inlineStr"/>
       <c r="K445" t="inlineStr">
         <is>
@@ -15454,9 +15542,11 @@
         <v>-20352834.63664197</v>
       </c>
       <c r="H447" t="n">
-        <v>0</v>
-      </c>
-      <c r="I447" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I447" t="n">
+        <v>2.885</v>
+      </c>
       <c r="J447" t="inlineStr"/>
       <c r="K447" t="inlineStr">
         <is>
@@ -15491,9 +15581,11 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H448" t="n">
-        <v>0</v>
-      </c>
-      <c r="I448" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I448" t="n">
+        <v>2.885</v>
+      </c>
       <c r="J448" t="inlineStr"/>
       <c r="K448" t="inlineStr">
         <is>
@@ -15528,9 +15620,11 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H449" t="n">
-        <v>0</v>
-      </c>
-      <c r="I449" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I449" t="n">
+        <v>2.898</v>
+      </c>
       <c r="J449" t="inlineStr"/>
       <c r="K449" t="inlineStr">
         <is>
@@ -15565,9 +15659,11 @@
         <v>-20352657.63664197</v>
       </c>
       <c r="H450" t="n">
-        <v>0</v>
-      </c>
-      <c r="I450" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I450" t="n">
+        <v>2.898</v>
+      </c>
       <c r="J450" t="inlineStr"/>
       <c r="K450" t="inlineStr">
         <is>
@@ -15602,9 +15698,11 @@
         <v>-20119154.35594197</v>
       </c>
       <c r="H451" t="n">
-        <v>0</v>
-      </c>
-      <c r="I451" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I451" t="n">
+        <v>2.898</v>
+      </c>
       <c r="J451" t="inlineStr"/>
       <c r="K451" t="inlineStr">
         <is>
@@ -15639,9 +15737,11 @@
         <v>-20118954.35594197</v>
       </c>
       <c r="H452" t="n">
-        <v>0</v>
-      </c>
-      <c r="I452" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I452" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J452" t="inlineStr"/>
       <c r="K452" t="inlineStr">
         <is>
@@ -15676,16 +15776,18 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H453" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I453" t="inlineStr"/>
       <c r="J453" t="inlineStr"/>
       <c r="K453" t="inlineStr">
         <is>
-          <t>매도 체결</t>
+          <t>매도 대기</t>
         </is>
       </c>
-      <c r="L453" t="inlineStr"/>
+      <c r="L453" t="n">
+        <v>1</v>
+      </c>
       <c r="M453" t="inlineStr"/>
     </row>
     <row r="454">
@@ -15711,11 +15813,15 @@
         <v>-20117977.35594197</v>
       </c>
       <c r="H454" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="I454" t="inlineStr"/>
       <c r="J454" t="inlineStr"/>
-      <c r="K454" t="inlineStr"/>
+      <c r="K454" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L454" t="n">
         <v>1</v>
       </c>
@@ -15744,11 +15850,17 @@
         <v>-20118177.35594197</v>
       </c>
       <c r="H455" t="n">
-        <v>0</v>
-      </c>
-      <c r="I455" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I455" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J455" t="inlineStr"/>
-      <c r="K455" t="inlineStr"/>
+      <c r="K455" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L455" t="n">
         <v>1</v>
       </c>
@@ -15777,11 +15889,17 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H456" t="n">
-        <v>0</v>
-      </c>
-      <c r="I456" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I456" t="n">
+        <v>2.914</v>
+      </c>
       <c r="J456" t="inlineStr"/>
-      <c r="K456" t="inlineStr"/>
+      <c r="K456" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L456" t="n">
         <v>1</v>
       </c>
@@ -15810,11 +15928,17 @@
         <v>-20118000.35594197</v>
       </c>
       <c r="H457" t="n">
-        <v>2</v>
-      </c>
-      <c r="I457" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I457" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J457" t="inlineStr"/>
-      <c r="K457" t="inlineStr"/>
+      <c r="K457" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L457" t="n">
         <v>1</v>
       </c>
@@ -15843,11 +15967,17 @@
         <v>-20120444.35594197</v>
       </c>
       <c r="H458" t="n">
-        <v>2</v>
-      </c>
-      <c r="I458" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I458" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J458" t="inlineStr"/>
-      <c r="K458" t="inlineStr"/>
+      <c r="K458" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L458" t="n">
         <v>1</v>
       </c>
@@ -15876,11 +16006,17 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H459" t="n">
-        <v>0</v>
-      </c>
-      <c r="I459" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I459" t="n">
+        <v>2.912</v>
+      </c>
       <c r="J459" t="inlineStr"/>
-      <c r="K459" t="inlineStr"/>
+      <c r="K459" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L459" t="n">
         <v>1</v>
       </c>
@@ -15909,11 +16045,17 @@
         <v>-20122936.42264197</v>
       </c>
       <c r="H460" t="n">
-        <v>2</v>
-      </c>
-      <c r="I460" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I460" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J460" t="inlineStr"/>
-      <c r="K460" t="inlineStr"/>
+      <c r="K460" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L460" t="n">
         <v>1</v>
       </c>
@@ -15942,11 +16084,17 @@
         <v>-20124047.42264197</v>
       </c>
       <c r="H461" t="n">
-        <v>2</v>
-      </c>
-      <c r="I461" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I461" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J461" t="inlineStr"/>
-      <c r="K461" t="inlineStr"/>
+      <c r="K461" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L461" t="n">
         <v>1</v>
       </c>
@@ -15975,11 +16123,17 @@
         <v>-20122847.42264197</v>
       </c>
       <c r="H462" t="n">
-        <v>0</v>
-      </c>
-      <c r="I462" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I462" t="n">
+        <v>2.906</v>
+      </c>
       <c r="J462" t="inlineStr"/>
-      <c r="K462" t="inlineStr"/>
+      <c r="K462" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L462" t="n">
         <v>1</v>
       </c>
@@ -16008,11 +16162,17 @@
         <v>-20127617.20064197</v>
       </c>
       <c r="H463" t="n">
-        <v>0</v>
-      </c>
-      <c r="I463" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I463" t="n">
+        <v>2.915</v>
+      </c>
       <c r="J463" t="inlineStr"/>
-      <c r="K463" t="inlineStr"/>
+      <c r="K463" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L463" t="n">
         <v>1</v>
       </c>
@@ -16041,11 +16201,17 @@
         <v>-20142617.20064197</v>
       </c>
       <c r="H464" t="n">
-        <v>0</v>
-      </c>
-      <c r="I464" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I464" t="n">
+        <v>2.906</v>
+      </c>
       <c r="J464" t="inlineStr"/>
-      <c r="K464" t="inlineStr"/>
+      <c r="K464" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L464" t="n">
         <v>1</v>
       </c>
@@ -16074,11 +16240,17 @@
         <v>-20142147.20064197</v>
       </c>
       <c r="H465" t="n">
-        <v>0</v>
-      </c>
-      <c r="I465" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I465" t="n">
+        <v>2.9</v>
+      </c>
       <c r="J465" t="inlineStr"/>
-      <c r="K465" t="inlineStr"/>
+      <c r="K465" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L465" t="n">
         <v>1</v>
       </c>
@@ -16107,11 +16279,17 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H466" t="n">
-        <v>0</v>
-      </c>
-      <c r="I466" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I466" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J466" t="inlineStr"/>
-      <c r="K466" t="inlineStr"/>
+      <c r="K466" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L466" t="n">
         <v>1</v>
       </c>
@@ -16140,11 +16318,17 @@
         <v>-20140947.20064197</v>
       </c>
       <c r="H467" t="n">
-        <v>0</v>
-      </c>
-      <c r="I467" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I467" t="n">
+        <v>2.913</v>
+      </c>
       <c r="J467" t="inlineStr"/>
-      <c r="K467" t="inlineStr"/>
+      <c r="K467" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L467" t="n">
         <v>1</v>
       </c>
@@ -16173,11 +16357,17 @@
         <v>-20141124.20064197</v>
       </c>
       <c r="H468" t="n">
-        <v>0</v>
-      </c>
-      <c r="I468" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I468" t="n">
+        <v>2.913</v>
+      </c>
       <c r="J468" t="inlineStr"/>
-      <c r="K468" t="inlineStr"/>
+      <c r="K468" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L468" t="n">
         <v>1</v>
       </c>
@@ -16206,11 +16396,17 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H469" t="n">
-        <v>0</v>
-      </c>
-      <c r="I469" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I469" t="n">
+        <v>2.912</v>
+      </c>
       <c r="J469" t="inlineStr"/>
-      <c r="K469" t="inlineStr"/>
+      <c r="K469" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L469" t="n">
         <v>1</v>
       </c>
@@ -16239,11 +16435,17 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H470" t="n">
-        <v>0</v>
-      </c>
-      <c r="I470" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I470" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J470" t="inlineStr"/>
-      <c r="K470" t="inlineStr"/>
+      <c r="K470" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L470" t="n">
         <v>1</v>
       </c>
@@ -16272,11 +16474,17 @@
         <v>-20295432.43544197</v>
       </c>
       <c r="H471" t="n">
-        <v>0</v>
-      </c>
-      <c r="I471" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I471" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J471" t="inlineStr"/>
-      <c r="K471" t="inlineStr"/>
+      <c r="K471" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L471" t="n">
         <v>1</v>
       </c>
@@ -16305,11 +16513,17 @@
         <v>-20297876.43544197</v>
       </c>
       <c r="H472" t="n">
-        <v>0</v>
-      </c>
-      <c r="I472" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I472" t="n">
+        <v>2.911</v>
+      </c>
       <c r="J472" t="inlineStr"/>
-      <c r="K472" t="inlineStr"/>
+      <c r="K472" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L472" t="n">
         <v>1</v>
       </c>
@@ -16338,11 +16552,17 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H473" t="n">
-        <v>0</v>
-      </c>
-      <c r="I473" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I473" t="n">
+        <v>2.906</v>
+      </c>
       <c r="J473" t="inlineStr"/>
-      <c r="K473" t="inlineStr"/>
+      <c r="K473" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L473" t="n">
         <v>1</v>
       </c>
@@ -16371,11 +16591,17 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H474" t="n">
-        <v>0</v>
-      </c>
-      <c r="I474" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I474" t="n">
+        <v>2.909</v>
+      </c>
       <c r="J474" t="inlineStr"/>
-      <c r="K474" t="inlineStr"/>
+      <c r="K474" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L474" t="n">
         <v>1</v>
       </c>
@@ -16404,11 +16630,17 @@
         <v>-19379685.55394197</v>
       </c>
       <c r="H475" t="n">
-        <v>0</v>
-      </c>
-      <c r="I475" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I475" t="n">
+        <v>2.909</v>
+      </c>
       <c r="J475" t="inlineStr"/>
-      <c r="K475" t="inlineStr"/>
+      <c r="K475" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L475" t="n">
         <v>1</v>
       </c>
@@ -16437,11 +16669,17 @@
         <v>-19387751.92944197</v>
       </c>
       <c r="H476" t="n">
-        <v>0</v>
-      </c>
-      <c r="I476" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I476" t="n">
+        <v>2.909</v>
+      </c>
       <c r="J476" t="inlineStr"/>
-      <c r="K476" t="inlineStr"/>
+      <c r="K476" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L476" t="n">
         <v>1</v>
       </c>
@@ -16470,11 +16708,17 @@
         <v>-19271502.50834197</v>
       </c>
       <c r="H477" t="n">
-        <v>0</v>
-      </c>
-      <c r="I477" t="inlineStr"/>
+        <v>1</v>
+      </c>
+      <c r="I477" t="n">
+        <v>2.905</v>
+      </c>
       <c r="J477" t="inlineStr"/>
-      <c r="K477" t="inlineStr"/>
+      <c r="K477" t="inlineStr">
+        <is>
+          <t>매도 대기</t>
+        </is>
+      </c>
       <c r="L477" t="n">
         <v>1</v>
       </c>
